--- a/ltc_data.xlsx
+++ b/ltc_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E367"/>
+  <dimension ref="A1:F367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6169 +463,7270 @@
           <t>volatility</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>market_cap_pct_change</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="B2" t="n">
-        <v>60.89110261394542</v>
+        <v>61.39490366462152</v>
       </c>
       <c r="C2" t="n">
-        <v>446690610.2483801</v>
+        <v>357356246.8979641</v>
       </c>
       <c r="D2" t="n">
-        <v>4321662477.601759</v>
+        <v>4356538358.229564</v>
       </c>
       <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="B3" t="n">
-        <v>61.39490366462152</v>
+        <v>60.42314471420725</v>
       </c>
       <c r="C3" t="n">
-        <v>357356246.8979641</v>
+        <v>527728174.7912757</v>
       </c>
       <c r="D3" t="n">
-        <v>4356538358.229564</v>
+        <v>4291323546.613761</v>
       </c>
       <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>-1.496941063140433</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="B4" t="n">
-        <v>60.42314471420725</v>
+        <v>60.08462951843796</v>
       </c>
       <c r="C4" t="n">
-        <v>527728174.7912757</v>
+        <v>354112256.2881515</v>
       </c>
       <c r="D4" t="n">
-        <v>4291323546.613761</v>
+        <v>4272018444.158026</v>
       </c>
       <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>-0.4498635967676967</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44792</v>
+        <v>44793</v>
       </c>
       <c r="B5" t="n">
-        <v>60.08462951843796</v>
+        <v>54.05299105629522</v>
       </c>
       <c r="C5" t="n">
-        <v>354112256.2881515</v>
+        <v>548136791.3146671</v>
       </c>
       <c r="D5" t="n">
-        <v>4272018444.158026</v>
+        <v>3830403570.484195</v>
       </c>
       <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>-10.33738218704878</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44793</v>
+        <v>44794</v>
       </c>
       <c r="B6" t="n">
-        <v>54.05299105629522</v>
+        <v>54.09706525315386</v>
       </c>
       <c r="C6" t="n">
-        <v>548136791.3146671</v>
+        <v>412215479.553064</v>
       </c>
       <c r="D6" t="n">
-        <v>3830403570.484195</v>
+        <v>3839421284.523895</v>
       </c>
       <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0.2354246458307063</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44794</v>
+        <v>44795</v>
       </c>
       <c r="B7" t="n">
-        <v>54.09706525315386</v>
+        <v>55.69011473335879</v>
       </c>
       <c r="C7" t="n">
-        <v>412215479.553064</v>
+        <v>280191775.212908</v>
       </c>
       <c r="D7" t="n">
-        <v>3839421284.523895</v>
+        <v>3952997329.118257</v>
       </c>
       <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>2.958155309816335</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44795</v>
+        <v>44796</v>
       </c>
       <c r="B8" t="n">
-        <v>55.69011473335879</v>
+        <v>57.17797790595773</v>
       </c>
       <c r="C8" t="n">
-        <v>280191775.212908</v>
+        <v>740367884.0940232</v>
       </c>
       <c r="D8" t="n">
-        <v>3952997329.118257</v>
+        <v>4046892691.193118</v>
       </c>
       <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>2.375295358365581</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="B9" t="n">
-        <v>57.17797790595773</v>
+        <v>57.10754369676993</v>
       </c>
       <c r="C9" t="n">
-        <v>740367884.0940232</v>
+        <v>488950471.7971052</v>
       </c>
       <c r="D9" t="n">
-        <v>4046892691.193118</v>
+        <v>4054048644.177232</v>
       </c>
       <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.1768258644388343</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="B10" t="n">
-        <v>57.10754369676993</v>
+        <v>56.48816741637093</v>
       </c>
       <c r="C10" t="n">
-        <v>488950471.7971052</v>
+        <v>359040331.1837753</v>
       </c>
       <c r="D10" t="n">
-        <v>4054048644.177232</v>
+        <v>4006667597.66095</v>
       </c>
       <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>-1.168734040336061</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="B11" t="n">
-        <v>56.48816741637093</v>
+        <v>56.88746852520753</v>
       </c>
       <c r="C11" t="n">
-        <v>359040331.1837753</v>
+        <v>335871273.7669783</v>
       </c>
       <c r="D11" t="n">
-        <v>4006667597.66095</v>
+        <v>4043686686.430129</v>
       </c>
       <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>0.9239371090027371</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44799</v>
+        <v>44800</v>
       </c>
       <c r="B12" t="n">
-        <v>56.88746852520753</v>
+        <v>52.57410424425794</v>
       </c>
       <c r="C12" t="n">
-        <v>335871273.7669783</v>
+        <v>417424803.0671855</v>
       </c>
       <c r="D12" t="n">
-        <v>4043686686.430129</v>
+        <v>3728092139.207158</v>
       </c>
       <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>-7.804624138711047</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44800</v>
+        <v>44801</v>
       </c>
       <c r="B13" t="n">
-        <v>52.57410424425794</v>
+        <v>53.08539636331984</v>
       </c>
       <c r="C13" t="n">
-        <v>417424803.0671855</v>
+        <v>285262864.2693813</v>
       </c>
       <c r="D13" t="n">
-        <v>3728092139.207158</v>
+        <v>3771482272.504148</v>
       </c>
       <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>1.163869659783079</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44801</v>
+        <v>44802</v>
       </c>
       <c r="B14" t="n">
-        <v>53.08539636331984</v>
+        <v>53.61253901449211</v>
       </c>
       <c r="C14" t="n">
-        <v>285262864.2693813</v>
+        <v>370946947.3328946</v>
       </c>
       <c r="D14" t="n">
-        <v>3771482272.504148</v>
+        <v>3808968280.905448</v>
       </c>
       <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0.9939330399241442</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44802</v>
+        <v>44803</v>
       </c>
       <c r="B15" t="n">
-        <v>53.61253901449211</v>
+        <v>55.86478079989234</v>
       </c>
       <c r="C15" t="n">
-        <v>370946947.3328946</v>
+        <v>410727461.403915</v>
       </c>
       <c r="D15" t="n">
-        <v>3808968280.905448</v>
+        <v>3966278032.533166</v>
       </c>
       <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>4.129983240246959</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="B16" t="n">
-        <v>55.86478079989234</v>
+        <v>53.13272037438296</v>
       </c>
       <c r="C16" t="n">
-        <v>410727461.403915</v>
+        <v>369013635.7083274</v>
       </c>
       <c r="D16" t="n">
-        <v>3966278032.533166</v>
+        <v>3786790650.387986</v>
       </c>
       <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>-4.525335356547011</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="B17" t="n">
-        <v>53.13272037438296</v>
+        <v>53.73336251607968</v>
       </c>
       <c r="C17" t="n">
-        <v>369013635.7083274</v>
+        <v>320097858.458744</v>
       </c>
       <c r="D17" t="n">
-        <v>3786790650.387986</v>
+        <v>3820482929.09622</v>
       </c>
       <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>0.8897317496223911</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="B18" t="n">
-        <v>53.73336251607968</v>
+        <v>57.57544537664431</v>
       </c>
       <c r="C18" t="n">
-        <v>320097858.458744</v>
+        <v>477657954.7934049</v>
       </c>
       <c r="D18" t="n">
-        <v>3820482929.09622</v>
+        <v>4088049249.08269</v>
       </c>
       <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>7.003468539244739</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44806</v>
+        <v>44807</v>
       </c>
       <c r="B19" t="n">
-        <v>57.57544537664431</v>
+        <v>60.98619003768697</v>
       </c>
       <c r="C19" t="n">
-        <v>477657954.7934049</v>
+        <v>614145560.1018603</v>
       </c>
       <c r="D19" t="n">
-        <v>4088049249.08269</v>
+        <v>4320250701.799682</v>
       </c>
       <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>5.68000624672258</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44807</v>
+        <v>44808</v>
       </c>
       <c r="B20" t="n">
-        <v>60.98619003768697</v>
+        <v>60.02262700931005</v>
       </c>
       <c r="C20" t="n">
-        <v>614145560.1018603</v>
+        <v>402929382.7940488</v>
       </c>
       <c r="D20" t="n">
-        <v>4320250701.799682</v>
+        <v>4266067380.329451</v>
       </c>
       <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>-1.254170769480101</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44808</v>
+        <v>44809</v>
       </c>
       <c r="B21" t="n">
-        <v>60.02262700931005</v>
+        <v>60.91878251211683</v>
       </c>
       <c r="C21" t="n">
-        <v>402929382.7940488</v>
+        <v>300503155.4133037</v>
       </c>
       <c r="D21" t="n">
-        <v>4266067380.329451</v>
+        <v>4331105869.082729</v>
       </c>
       <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>1.524553715517163</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44809</v>
+        <v>44810</v>
       </c>
       <c r="B22" t="n">
-        <v>60.91878251211683</v>
+        <v>60.52214592358445</v>
       </c>
       <c r="C22" t="n">
-        <v>300503155.4133037</v>
+        <v>332628150.1512573</v>
       </c>
       <c r="D22" t="n">
-        <v>4331105869.082729</v>
+        <v>4293818588.287372</v>
       </c>
       <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>-0.8609182486516764</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="B23" t="n">
-        <v>60.52214592358445</v>
+        <v>54.22185803405654</v>
       </c>
       <c r="C23" t="n">
-        <v>332628150.1512573</v>
+        <v>509658953.2390038</v>
       </c>
       <c r="D23" t="n">
-        <v>4293818588.287372</v>
+        <v>3862096447.469923</v>
       </c>
       <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>-10.0545035133784</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="B24" t="n">
-        <v>54.22185803405654</v>
+        <v>57.48771200697838</v>
       </c>
       <c r="C24" t="n">
-        <v>509658953.2390038</v>
+        <v>501838403.9586053</v>
       </c>
       <c r="D24" t="n">
-        <v>3862096447.469923</v>
+        <v>4107031805.540549</v>
       </c>
       <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>6.342031106734369</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="B25" t="n">
-        <v>57.48771200697838</v>
+        <v>57.97218017613184</v>
       </c>
       <c r="C25" t="n">
-        <v>501838403.9586053</v>
+        <v>412021872.2629163</v>
       </c>
       <c r="D25" t="n">
-        <v>4107031805.540549</v>
+        <v>4123912209.860071</v>
       </c>
       <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>0.4110122618663503</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44813</v>
+        <v>44814</v>
       </c>
       <c r="B26" t="n">
-        <v>57.97218017613184</v>
+        <v>61.22023599343097</v>
       </c>
       <c r="C26" t="n">
-        <v>412021872.2629163</v>
+        <v>481882044.8632152</v>
       </c>
       <c r="D26" t="n">
-        <v>4123912209.860071</v>
+        <v>4348718128.29755</v>
       </c>
       <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>5.451277985500735</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44814</v>
+        <v>44815</v>
       </c>
       <c r="B27" t="n">
-        <v>61.22023599343097</v>
+        <v>63.36991460862492</v>
       </c>
       <c r="C27" t="n">
-        <v>481882044.8632152</v>
+        <v>473031618.9907615</v>
       </c>
       <c r="D27" t="n">
-        <v>4348718128.29755</v>
+        <v>4507117314.074601</v>
       </c>
       <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>3.642433956487801</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44815</v>
+        <v>44816</v>
       </c>
       <c r="B28" t="n">
-        <v>63.36991460862492</v>
+        <v>62.15253378727816</v>
       </c>
       <c r="C28" t="n">
-        <v>473031618.9907615</v>
+        <v>352414771.1756549</v>
       </c>
       <c r="D28" t="n">
-        <v>4507117314.074601</v>
+        <v>4421516495.469196</v>
       </c>
       <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>-1.89923653280768</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="B29" t="n">
-        <v>62.15253378727816</v>
+        <v>61.30124594580556</v>
       </c>
       <c r="C29" t="n">
-        <v>352414771.1756549</v>
+        <v>431647875.4247398</v>
       </c>
       <c r="D29" t="n">
-        <v>4421516495.469196</v>
+        <v>4360964393.476606</v>
       </c>
       <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>-1.369487189624619</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="B30" t="n">
-        <v>61.30124594580556</v>
+        <v>59.03600018428936</v>
       </c>
       <c r="C30" t="n">
-        <v>431647875.4247398</v>
+        <v>821391861.0535619</v>
       </c>
       <c r="D30" t="n">
-        <v>4360964393.476606</v>
+        <v>4196363054.364532</v>
       </c>
       <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>-3.774425201872678</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="B31" t="n">
-        <v>59.03600018428936</v>
+        <v>60.17418175308757</v>
       </c>
       <c r="C31" t="n">
-        <v>821391861.0535619</v>
+        <v>493820557.9157531</v>
       </c>
       <c r="D31" t="n">
-        <v>4196363054.364532</v>
+        <v>4272364924.614448</v>
       </c>
       <c r="E31" t="n">
-        <v>3.216203592908814</v>
+        <v>3.194801566193187</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.811136673955538</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44819</v>
+        <v>44820</v>
       </c>
       <c r="B32" t="n">
-        <v>60.17418175308757</v>
+        <v>56.21253088662602</v>
       </c>
       <c r="C32" t="n">
-        <v>493820557.9157531</v>
+        <v>476187207.356387</v>
       </c>
       <c r="D32" t="n">
-        <v>4272364924.614448</v>
+        <v>4006165846.44871</v>
       </c>
       <c r="E32" t="n">
-        <v>3.194801566193187</v>
+        <v>3.13012940346024</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-6.230719586524092</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44820</v>
+        <v>44821</v>
       </c>
       <c r="B33" t="n">
-        <v>56.21253088662602</v>
+        <v>55.74210296339805</v>
       </c>
       <c r="C33" t="n">
-        <v>476187207.356387</v>
+        <v>355354079.2129731</v>
       </c>
       <c r="D33" t="n">
-        <v>4006165846.44871</v>
+        <v>3962054465.170012</v>
       </c>
       <c r="E33" t="n">
-        <v>3.13012940346024</v>
+        <v>3.099670006254765</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-1.101087248242649</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44821</v>
+        <v>44822</v>
       </c>
       <c r="B34" t="n">
-        <v>55.74210296339805</v>
+        <v>57.76815570115465</v>
       </c>
       <c r="C34" t="n">
-        <v>355354079.2129731</v>
+        <v>259425898.0897657</v>
       </c>
       <c r="D34" t="n">
-        <v>3962054465.170012</v>
+        <v>4109443085.150955</v>
       </c>
       <c r="E34" t="n">
-        <v>3.099670006254765</v>
+        <v>3.059513276204062</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3.720004893335549</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44822</v>
+        <v>44823</v>
       </c>
       <c r="B35" t="n">
-        <v>57.76815570115465</v>
+        <v>52.88818731523069</v>
       </c>
       <c r="C35" t="n">
-        <v>259425898.0897657</v>
+        <v>334776096.3482308</v>
       </c>
       <c r="D35" t="n">
-        <v>4109443085.150955</v>
+        <v>3760104122.716197</v>
       </c>
       <c r="E35" t="n">
-        <v>3.059513276204062</v>
+        <v>3.109640626141335</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-8.500883336164422</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44823</v>
+        <v>44824</v>
       </c>
       <c r="B36" t="n">
-        <v>52.88818731523069</v>
+        <v>52.86981862873414</v>
       </c>
       <c r="C36" t="n">
-        <v>334776096.3482308</v>
+        <v>547575641.4350837</v>
       </c>
       <c r="D36" t="n">
-        <v>3760104122.716197</v>
+        <v>3762597663.652556</v>
       </c>
       <c r="E36" t="n">
-        <v>3.109640626141335</v>
+        <v>3.160889744653297</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.06631574166511278</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="B37" t="n">
-        <v>52.86981862873414</v>
+        <v>52.27888016288279</v>
       </c>
       <c r="C37" t="n">
-        <v>547575641.4350837</v>
+        <v>426596967.6572288</v>
       </c>
       <c r="D37" t="n">
-        <v>3762597663.652556</v>
+        <v>3721579259.337693</v>
       </c>
       <c r="E37" t="n">
-        <v>3.160889744653297</v>
+        <v>3.278475898477843</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-1.090161850444671</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44825</v>
+        <v>44826</v>
       </c>
       <c r="B38" t="n">
-        <v>52.27888016288279</v>
+        <v>51.21648381804705</v>
       </c>
       <c r="C38" t="n">
-        <v>426596967.6572288</v>
+        <v>523237545.8890882</v>
       </c>
       <c r="D38" t="n">
-        <v>3721579259.337693</v>
+        <v>3647700388.550491</v>
       </c>
       <c r="E38" t="n">
-        <v>3.278475898477843</v>
+        <v>3.452530897994747</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-1.985148391017999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="B39" t="n">
-        <v>51.21648381804705</v>
+        <v>53.58693851892969</v>
       </c>
       <c r="C39" t="n">
-        <v>523237545.8890882</v>
+        <v>353485685.6181548</v>
       </c>
       <c r="D39" t="n">
-        <v>3647700388.550491</v>
+        <v>3810698240.453671</v>
       </c>
       <c r="E39" t="n">
-        <v>3.452530897994746</v>
+        <v>3.506316087094246</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4.468509870350146</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44827</v>
+        <v>44828</v>
       </c>
       <c r="B40" t="n">
-        <v>53.58693851892969</v>
+        <v>55.00257329836104</v>
       </c>
       <c r="C40" t="n">
-        <v>353485685.6181548</v>
+        <v>422981094.3587435</v>
       </c>
       <c r="D40" t="n">
-        <v>3810698240.453671</v>
+        <v>3930346417.711209</v>
       </c>
       <c r="E40" t="n">
-        <v>3.506316087094246</v>
+        <v>3.521768078467264</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3.139796690994179</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44828</v>
+        <v>44829</v>
       </c>
       <c r="B41" t="n">
-        <v>55.00257329836104</v>
+        <v>53.46120087040541</v>
       </c>
       <c r="C41" t="n">
-        <v>422981094.3587435</v>
+        <v>332713551.5927083</v>
       </c>
       <c r="D41" t="n">
-        <v>3930346417.711209</v>
+        <v>3809171266.307682</v>
       </c>
       <c r="E41" t="n">
-        <v>3.521768078467263</v>
+        <v>3.573359930247541</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-3.083065422871611</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44829</v>
+        <v>44830</v>
       </c>
       <c r="B42" t="n">
-        <v>53.46120087040541</v>
+        <v>52.58286457695929</v>
       </c>
       <c r="C42" t="n">
-        <v>332713551.5927083</v>
+        <v>275189792.221496</v>
       </c>
       <c r="D42" t="n">
-        <v>3809171266.307682</v>
+        <v>3743370323.612514</v>
       </c>
       <c r="E42" t="n">
-        <v>3.57335993024754</v>
+        <v>3.573014325161668</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-1.727434607028033</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44830</v>
+        <v>44831</v>
       </c>
       <c r="B43" t="n">
-        <v>52.58286457695929</v>
+        <v>53.38798915611119</v>
       </c>
       <c r="C43" t="n">
-        <v>275189792.221496</v>
+        <v>336737530.6469974</v>
       </c>
       <c r="D43" t="n">
-        <v>3743370323.612514</v>
+        <v>3799038166.836695</v>
       </c>
       <c r="E43" t="n">
-        <v>3.573014325161667</v>
+        <v>3.562969001708855</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.487104892429092</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="B44" t="n">
-        <v>53.38798915611119</v>
+        <v>52.753254321977</v>
       </c>
       <c r="C44" t="n">
-        <v>336737530.6469974</v>
+        <v>361356069.4277464</v>
       </c>
       <c r="D44" t="n">
-        <v>3799038166.836695</v>
+        <v>3762643620.708857</v>
       </c>
       <c r="E44" t="n">
-        <v>3.562969001708854</v>
+        <v>3.591788978516955</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.9579936954974722</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="B45" t="n">
-        <v>52.753254321977</v>
+        <v>53.36671347778069</v>
       </c>
       <c r="C45" t="n">
-        <v>361356069.4277464</v>
+        <v>322552858.3736675</v>
       </c>
       <c r="D45" t="n">
-        <v>3762643620.708857</v>
+        <v>3802649005.46638</v>
       </c>
       <c r="E45" t="n">
-        <v>3.591788978516954</v>
+        <v>3.639218246875564</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.063225455032257</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="B46" t="n">
-        <v>53.36671347778069</v>
+        <v>53.95967926724024</v>
       </c>
       <c r="C46" t="n">
-        <v>322552858.3736675</v>
+        <v>288221152.3799279</v>
       </c>
       <c r="D46" t="n">
-        <v>3802649005.46638</v>
+        <v>3839536347.095978</v>
       </c>
       <c r="E46" t="n">
-        <v>3.639218246875563</v>
+        <v>3.615379106163215</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9700432928879676</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44834</v>
+        <v>44835</v>
       </c>
       <c r="B47" t="n">
-        <v>53.95967926724024</v>
+        <v>53.43700377767957</v>
       </c>
       <c r="C47" t="n">
-        <v>288221152.3799279</v>
+        <v>299157760.2053353</v>
       </c>
       <c r="D47" t="n">
-        <v>3839536347.095978</v>
+        <v>3814320769.585342</v>
       </c>
       <c r="E47" t="n">
-        <v>3.615379106163215</v>
+        <v>3.623855417653539</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.6567349604518657</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44835</v>
+        <v>44836</v>
       </c>
       <c r="B48" t="n">
-        <v>53.43700377767957</v>
+        <v>52.92778750708372</v>
       </c>
       <c r="C48" t="n">
-        <v>299157760.2053353</v>
+        <v>171859465.8746548</v>
       </c>
       <c r="D48" t="n">
-        <v>3814320769.585342</v>
+        <v>3773067353.184526</v>
       </c>
       <c r="E48" t="n">
-        <v>3.623855417653538</v>
+        <v>3.678870734609525</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-1.081540302791595</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44836</v>
+        <v>44837</v>
       </c>
       <c r="B49" t="n">
-        <v>52.92778750708372</v>
+        <v>51.89757497092148</v>
       </c>
       <c r="C49" t="n">
-        <v>171859465.8746548</v>
+        <v>185881269.4065352</v>
       </c>
       <c r="D49" t="n">
-        <v>3773067353.184526</v>
+        <v>3692364373.798229</v>
       </c>
       <c r="E49" t="n">
-        <v>3.678870734609524</v>
+        <v>3.664721946464024</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-2.138922309939228</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44837</v>
+        <v>44838</v>
       </c>
       <c r="B50" t="n">
-        <v>51.89757497092148</v>
+        <v>54.21485746271721</v>
       </c>
       <c r="C50" t="n">
-        <v>185881269.4065352</v>
+        <v>276386040.2088249</v>
       </c>
       <c r="D50" t="n">
-        <v>3692364373.798229</v>
+        <v>3868705885.743251</v>
       </c>
       <c r="E50" t="n">
-        <v>3.664721946464024</v>
+        <v>3.604614053937544</v>
+      </c>
+      <c r="F50" t="n">
+        <v>4.775842633418792</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44838</v>
+        <v>44839</v>
       </c>
       <c r="B51" t="n">
-        <v>54.21485746271721</v>
+        <v>55.30483080261767</v>
       </c>
       <c r="C51" t="n">
-        <v>276386040.2088249</v>
+        <v>254789401.9605725</v>
       </c>
       <c r="D51" t="n">
-        <v>3868705885.743251</v>
+        <v>3951547245.860062</v>
       </c>
       <c r="E51" t="n">
-        <v>3.604614053937543</v>
+        <v>3.480329533565188</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2.141319670282837</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44839</v>
+        <v>44840</v>
       </c>
       <c r="B52" t="n">
-        <v>55.30483080261767</v>
+        <v>54.5817402032304</v>
       </c>
       <c r="C52" t="n">
-        <v>254789401.9605725</v>
+        <v>239566960.74729</v>
       </c>
       <c r="D52" t="n">
-        <v>3951547245.860062</v>
+        <v>3892494552.152661</v>
       </c>
       <c r="E52" t="n">
-        <v>3.480329533565187</v>
+        <v>3.36621648579372</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-1.494419528180213</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44840</v>
+        <v>44841</v>
       </c>
       <c r="B53" t="n">
-        <v>54.5817402032304</v>
+        <v>53.53240897510123</v>
       </c>
       <c r="C53" t="n">
-        <v>239566960.74729</v>
+        <v>261475849.4976124</v>
       </c>
       <c r="D53" t="n">
-        <v>3892494552.152661</v>
+        <v>3818439737.591924</v>
       </c>
       <c r="E53" t="n">
-        <v>3.366216485793719</v>
+        <v>3.37790082308658</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-1.902502715637278</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44841</v>
+        <v>44842</v>
       </c>
       <c r="B54" t="n">
-        <v>53.53240897510123</v>
+        <v>52.59233846237554</v>
       </c>
       <c r="C54" t="n">
-        <v>261475849.4976124</v>
+        <v>275874698.3084185</v>
       </c>
       <c r="D54" t="n">
-        <v>3818439737.591924</v>
+        <v>3751579832.560956</v>
       </c>
       <c r="E54" t="n">
-        <v>3.37790082308658</v>
+        <v>3.397896290179082</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-1.750974471922218</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44842</v>
+        <v>44843</v>
       </c>
       <c r="B55" t="n">
-        <v>52.59233846237554</v>
+        <v>52.79186463517376</v>
       </c>
       <c r="C55" t="n">
-        <v>275874698.3084185</v>
+        <v>173982574.1408277</v>
       </c>
       <c r="D55" t="n">
-        <v>3751579832.560956</v>
+        <v>3767437114.271531</v>
       </c>
       <c r="E55" t="n">
-        <v>3.397896290179082</v>
+        <v>3.392181158209876</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.4226827741461436</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44843</v>
+        <v>44844</v>
       </c>
       <c r="B56" t="n">
-        <v>52.79186463517376</v>
+        <v>53.90670550389191</v>
       </c>
       <c r="C56" t="n">
-        <v>173982574.1408277</v>
+        <v>190160167.9968634</v>
       </c>
       <c r="D56" t="n">
-        <v>3767437114.271531</v>
+        <v>3837518394.909949</v>
       </c>
       <c r="E56" t="n">
-        <v>3.392181158209875</v>
+        <v>3.201061854855885</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.860184483848215</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44844</v>
+        <v>44845</v>
       </c>
       <c r="B57" t="n">
-        <v>53.90670550389191</v>
+        <v>52.73447962839302</v>
       </c>
       <c r="C57" t="n">
-        <v>190160167.9968634</v>
+        <v>293361041.332152</v>
       </c>
       <c r="D57" t="n">
-        <v>3837518394.909949</v>
+        <v>3775928566.18761</v>
       </c>
       <c r="E57" t="n">
-        <v>3.201061854855884</v>
+        <v>2.799367527337342</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-1.604938983589799</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44845</v>
+        <v>44846</v>
       </c>
       <c r="B58" t="n">
-        <v>52.73447962839302</v>
+        <v>52.02724634644044</v>
       </c>
       <c r="C58" t="n">
-        <v>293361041.332152</v>
+        <v>269475080.7764187</v>
       </c>
       <c r="D58" t="n">
-        <v>3775928566.18761</v>
+        <v>3707079299.94328</v>
       </c>
       <c r="E58" t="n">
-        <v>2.799367527337341</v>
+        <v>2.443786492733443</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-1.823373113062987</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44846</v>
+        <v>44847</v>
       </c>
       <c r="B59" t="n">
-        <v>52.02724634644044</v>
+        <v>52.19887675435327</v>
       </c>
       <c r="C59" t="n">
-        <v>269475080.7764187</v>
+        <v>242516878.2831754</v>
       </c>
       <c r="D59" t="n">
-        <v>3707079299.94328</v>
+        <v>3724382471.199377</v>
       </c>
       <c r="E59" t="n">
-        <v>2.443786492733442</v>
+        <v>2.075628587271214</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.4667602135287829</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="B60" t="n">
-        <v>52.19887675435327</v>
+        <v>51.21733513268848</v>
       </c>
       <c r="C60" t="n">
-        <v>242516878.2831754</v>
+        <v>400733059.1589711</v>
       </c>
       <c r="D60" t="n">
-        <v>3724382471.199377</v>
+        <v>3655851675.694348</v>
       </c>
       <c r="E60" t="n">
-        <v>2.075628587271213</v>
+        <v>1.897978858914029</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-1.840057943430273</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44848</v>
+        <v>44849</v>
       </c>
       <c r="B61" t="n">
-        <v>51.21733513268848</v>
+        <v>51.29995672662503</v>
       </c>
       <c r="C61" t="n">
-        <v>400733059.1589711</v>
+        <v>257723481.1648721</v>
       </c>
       <c r="D61" t="n">
-        <v>3655851675.694348</v>
+        <v>3658175026.498796</v>
       </c>
       <c r="E61" t="n">
-        <v>1.897978858914028</v>
+        <v>1.502419685472177</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.0635515609096915</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44849</v>
+        <v>44850</v>
       </c>
       <c r="B62" t="n">
-        <v>51.29995672662503</v>
+        <v>50.45604331702012</v>
       </c>
       <c r="C62" t="n">
-        <v>257723481.1648721</v>
+        <v>177445520.828384</v>
       </c>
       <c r="D62" t="n">
-        <v>3658175026.498796</v>
+        <v>3610017580.938718</v>
       </c>
       <c r="E62" t="n">
-        <v>1.502419685472176</v>
+        <v>1.497282549304044</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-1.316433609962298</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="B63" t="n">
-        <v>50.45604331702012</v>
+        <v>51.4879284270239</v>
       </c>
       <c r="C63" t="n">
-        <v>177445520.828384</v>
+        <v>185223021.7588156</v>
       </c>
       <c r="D63" t="n">
-        <v>3610017580.938718</v>
+        <v>3672496599.683683</v>
       </c>
       <c r="E63" t="n">
-        <v>1.497282549304042</v>
+        <v>1.448845315789384</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.730712312174343</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44851</v>
+        <v>44852</v>
       </c>
       <c r="B64" t="n">
-        <v>51.4879284270239</v>
+        <v>51.91824174417565</v>
       </c>
       <c r="C64" t="n">
-        <v>185223021.7588156</v>
+        <v>195267470.8710516</v>
       </c>
       <c r="D64" t="n">
-        <v>3672496599.683683</v>
+        <v>3705543260.825347</v>
       </c>
       <c r="E64" t="n">
-        <v>1.448845315789383</v>
+        <v>1.157359739047718</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.899841844496474</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44852</v>
+        <v>44853</v>
       </c>
       <c r="B65" t="n">
-        <v>51.91824174417565</v>
+        <v>51.93267207446968</v>
       </c>
       <c r="C65" t="n">
-        <v>195267470.8710516</v>
+        <v>228843329.9717002</v>
       </c>
       <c r="D65" t="n">
-        <v>3705543260.825347</v>
+        <v>3710086106.994142</v>
       </c>
       <c r="E65" t="n">
-        <v>1.157359739047716</v>
+        <v>1.169716813605702</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.1225959555464229</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44853</v>
+        <v>44854</v>
       </c>
       <c r="B66" t="n">
-        <v>51.93267207446968</v>
+        <v>50.93087717503332</v>
       </c>
       <c r="C66" t="n">
-        <v>228843329.9717002</v>
+        <v>209318744.0125106</v>
       </c>
       <c r="D66" t="n">
-        <v>3710086106.994142</v>
+        <v>3646472788.318113</v>
       </c>
       <c r="E66" t="n">
-        <v>1.1697168136057</v>
+        <v>1.219978079837337</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-1.714604913241968</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44854</v>
+        <v>44855</v>
       </c>
       <c r="B67" t="n">
-        <v>50.93087717503332</v>
+        <v>51.16108431046305</v>
       </c>
       <c r="C67" t="n">
-        <v>209318744.0125106</v>
+        <v>226668698.1495593</v>
       </c>
       <c r="D67" t="n">
-        <v>3646472788.318113</v>
+        <v>3653939473.538655</v>
       </c>
       <c r="E67" t="n">
-        <v>1.219978079837336</v>
+        <v>1.252024789919981</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.2047645945545629</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44855</v>
+        <v>44856</v>
       </c>
       <c r="B68" t="n">
-        <v>51.16108431046305</v>
+        <v>51.62733103954704</v>
       </c>
       <c r="C68" t="n">
-        <v>226668698.1495593</v>
+        <v>274508530.2222728</v>
       </c>
       <c r="D68" t="n">
-        <v>3653939473.538655</v>
+        <v>3689254927.431777</v>
       </c>
       <c r="E68" t="n">
-        <v>1.252024789919979</v>
+        <v>1.237067879791217</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.9665035271895217</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44856</v>
+        <v>44857</v>
       </c>
       <c r="B69" t="n">
-        <v>51.62733103954704</v>
+        <v>52.16297274595103</v>
       </c>
       <c r="C69" t="n">
-        <v>274508530.2222728</v>
+        <v>193587518.4178169</v>
       </c>
       <c r="D69" t="n">
-        <v>3689254927.431777</v>
+        <v>3728004666.333543</v>
       </c>
       <c r="E69" t="n">
-        <v>1.237067879791215</v>
+        <v>1.230859944144861</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1.050340506795533</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44857</v>
+        <v>44858</v>
       </c>
       <c r="B70" t="n">
-        <v>52.16297274595103</v>
+        <v>53.91366455779641</v>
       </c>
       <c r="C70" t="n">
-        <v>193587518.4178169</v>
+        <v>234650558.7012631</v>
       </c>
       <c r="D70" t="n">
-        <v>3728004666.333543</v>
+        <v>3852216016.652035</v>
       </c>
       <c r="E70" t="n">
-        <v>1.230859944144859</v>
+        <v>1.175271964673465</v>
+      </c>
+      <c r="F70" t="n">
+        <v>3.331845355243424</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44858</v>
+        <v>44859</v>
       </c>
       <c r="B71" t="n">
-        <v>53.91366455779641</v>
+        <v>52.52347044747977</v>
       </c>
       <c r="C71" t="n">
-        <v>234650558.7012631</v>
+        <v>271438374.8153105</v>
       </c>
       <c r="D71" t="n">
-        <v>3852216016.652035</v>
+        <v>3753096717.42586</v>
       </c>
       <c r="E71" t="n">
-        <v>1.175271964673463</v>
+        <v>1.165628992422737</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-2.573046236184828</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44859</v>
+        <v>44860</v>
       </c>
       <c r="B72" t="n">
-        <v>52.52347044747977</v>
+        <v>56.11746810391875</v>
       </c>
       <c r="C72" t="n">
-        <v>271438374.8153105</v>
+        <v>414311623.6190675</v>
       </c>
       <c r="D72" t="n">
-        <v>3753096717.42586</v>
+        <v>4007937996.494204</v>
       </c>
       <c r="E72" t="n">
-        <v>1.165628992422735</v>
+        <v>1.328238989524037</v>
+      </c>
+      <c r="F72" t="n">
+        <v>6.790160186522765</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="B73" t="n">
-        <v>56.11746810391875</v>
+        <v>56.39593108249522</v>
       </c>
       <c r="C73" t="n">
-        <v>414311623.6190675</v>
+        <v>442282177.4109176</v>
       </c>
       <c r="D73" t="n">
-        <v>4007937996.494204</v>
+        <v>4028040346.600474</v>
       </c>
       <c r="E73" t="n">
-        <v>1.328238989524035</v>
+        <v>1.482934308985467</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.5015634005280045</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44861</v>
+        <v>44862</v>
       </c>
       <c r="B74" t="n">
-        <v>56.39593108249522</v>
+        <v>54.8165935359339</v>
       </c>
       <c r="C74" t="n">
-        <v>442282177.4109176</v>
+        <v>371641700.4158092</v>
       </c>
       <c r="D74" t="n">
-        <v>4028040346.600474</v>
+        <v>3920821574.892571</v>
       </c>
       <c r="E74" t="n">
-        <v>1.482934308985466</v>
+        <v>1.52572774528831</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-2.661809775525015</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44862</v>
+        <v>44863</v>
       </c>
       <c r="B75" t="n">
-        <v>54.8165935359339</v>
+        <v>54.9897800143199</v>
       </c>
       <c r="C75" t="n">
-        <v>371641700.4158092</v>
+        <v>336928726.5882589</v>
       </c>
       <c r="D75" t="n">
-        <v>3920821574.892571</v>
+        <v>3930664099.888387</v>
       </c>
       <c r="E75" t="n">
-        <v>1.525727745288309</v>
+        <v>1.570437174524292</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.2510322086279881</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44863</v>
+        <v>44864</v>
       </c>
       <c r="B76" t="n">
-        <v>54.9897800143199</v>
+        <v>56.44846775385167</v>
       </c>
       <c r="C76" t="n">
-        <v>336928726.5882589</v>
+        <v>409873237.4667978</v>
       </c>
       <c r="D76" t="n">
-        <v>3930664099.888387</v>
+        <v>4033981029.231788</v>
       </c>
       <c r="E76" t="n">
-        <v>1.57043717452429</v>
+        <v>1.686074441253074</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2.628485332703323</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44864</v>
+        <v>44865</v>
       </c>
       <c r="B77" t="n">
-        <v>56.44846775385167</v>
+        <v>55.37542845505578</v>
       </c>
       <c r="C77" t="n">
-        <v>409873237.4667978</v>
+        <v>321979055.7869438</v>
       </c>
       <c r="D77" t="n">
-        <v>4033981029.231788</v>
+        <v>3952288914.694473</v>
       </c>
       <c r="E77" t="n">
-        <v>1.686074441253073</v>
+        <v>1.737705749521256</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-2.025099125289453</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44865</v>
+        <v>44866</v>
       </c>
       <c r="B78" t="n">
-        <v>55.37542845505578</v>
+        <v>55.07429113408141</v>
       </c>
       <c r="C78" t="n">
-        <v>321979055.7869438</v>
+        <v>381398582.7691071</v>
       </c>
       <c r="D78" t="n">
-        <v>3952288914.694473</v>
+        <v>3942779691.794451</v>
       </c>
       <c r="E78" t="n">
-        <v>1.737705749521255</v>
+        <v>1.773502884305778</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.2406003990413574</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44866</v>
+        <v>44867</v>
       </c>
       <c r="B79" t="n">
-        <v>55.07429113408141</v>
+        <v>55.13549544118597</v>
       </c>
       <c r="C79" t="n">
-        <v>381398582.7691071</v>
+        <v>558230125.6316289</v>
       </c>
       <c r="D79" t="n">
-        <v>3942779691.794451</v>
+        <v>3944990484.217174</v>
       </c>
       <c r="E79" t="n">
-        <v>1.773502884305777</v>
+        <v>1.790720910276375</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.05607192375784997</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44867</v>
+        <v>44868</v>
       </c>
       <c r="B80" t="n">
-        <v>55.13549544118597</v>
+        <v>60.42963193827674</v>
       </c>
       <c r="C80" t="n">
-        <v>558230125.6316289</v>
+        <v>2351454976.323296</v>
       </c>
       <c r="D80" t="n">
-        <v>3944990484.217174</v>
+        <v>4324027406.360339</v>
       </c>
       <c r="E80" t="n">
-        <v>1.790720910276374</v>
+        <v>2.210903256620584</v>
+      </c>
+      <c r="F80" t="n">
+        <v>9.608056690113397</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44868</v>
+        <v>44869</v>
       </c>
       <c r="B81" t="n">
-        <v>60.42963193827674</v>
+        <v>61.97735638521098</v>
       </c>
       <c r="C81" t="n">
-        <v>2351454976.323296</v>
+        <v>1856214070.172349</v>
       </c>
       <c r="D81" t="n">
-        <v>4324027406.360339</v>
+        <v>4423794135.511498</v>
       </c>
       <c r="E81" t="n">
-        <v>2.210903256620583</v>
+        <v>2.683544317272513</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2.307264033627754</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44869</v>
+        <v>44870</v>
       </c>
       <c r="B82" t="n">
-        <v>61.97735638521098</v>
+        <v>67.56479672684166</v>
       </c>
       <c r="C82" t="n">
-        <v>1856214070.172349</v>
+        <v>1988837054.545493</v>
       </c>
       <c r="D82" t="n">
-        <v>4423794135.511498</v>
+        <v>4830117697.884095</v>
       </c>
       <c r="E82" t="n">
-        <v>2.683544317272512</v>
+        <v>3.686048042549534</v>
+      </c>
+      <c r="F82" t="n">
+        <v>9.184956395481446</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44870</v>
+        <v>44871</v>
       </c>
       <c r="B83" t="n">
-        <v>67.56479672684166</v>
+        <v>69.65567756318899</v>
       </c>
       <c r="C83" t="n">
-        <v>1988837054.545493</v>
+        <v>1813549956.531375</v>
       </c>
       <c r="D83" t="n">
-        <v>4830117697.884095</v>
+        <v>5012880014.902214</v>
       </c>
       <c r="E83" t="n">
-        <v>3.686048042549533</v>
+        <v>4.642911098150227</v>
+      </c>
+      <c r="F83" t="n">
+        <v>3.783806698917092</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44871</v>
+        <v>44872</v>
       </c>
       <c r="B84" t="n">
-        <v>69.65567756318899</v>
+        <v>67.93952527428557</v>
       </c>
       <c r="C84" t="n">
-        <v>1813549956.531375</v>
+        <v>1380173799.479392</v>
       </c>
       <c r="D84" t="n">
-        <v>5012880014.902214</v>
+        <v>4847968715.73291</v>
       </c>
       <c r="E84" t="n">
-        <v>4.642911098150227</v>
+        <v>5.213618799325669</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-3.289751573527755</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44872</v>
+        <v>44873</v>
       </c>
       <c r="B85" t="n">
-        <v>67.93952527428557</v>
+        <v>67.72824014959652</v>
       </c>
       <c r="C85" t="n">
-        <v>1380173799.479392</v>
+        <v>2064715316.18389</v>
       </c>
       <c r="D85" t="n">
-        <v>4847968715.73291</v>
+        <v>4849012529.861761</v>
       </c>
       <c r="E85" t="n">
-        <v>5.213618799325667</v>
+        <v>5.66837471459939</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.02153095842931663</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44873</v>
+        <v>44874</v>
       </c>
       <c r="B86" t="n">
-        <v>67.72824014959652</v>
+        <v>57.34672858147384</v>
       </c>
       <c r="C86" t="n">
-        <v>2064715316.18389</v>
+        <v>1374480147.758033</v>
       </c>
       <c r="D86" t="n">
-        <v>4849012529.861761</v>
+        <v>4118289061.34735</v>
       </c>
       <c r="E86" t="n">
-        <v>5.668374714599389</v>
+        <v>5.665537664060209</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-15.06953145644363</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44874</v>
+        <v>44875</v>
       </c>
       <c r="B87" t="n">
-        <v>57.34672858147384</v>
+        <v>50.21833929577597</v>
       </c>
       <c r="C87" t="n">
-        <v>1374480147.758033</v>
+        <v>1142406771.231374</v>
       </c>
       <c r="D87" t="n">
-        <v>4118289061.34735</v>
+        <v>3605016992.724805</v>
       </c>
       <c r="E87" t="n">
-        <v>5.665537664060208</v>
+        <v>5.731029416517608</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-12.46323560528851</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44875</v>
+        <v>44876</v>
       </c>
       <c r="B88" t="n">
-        <v>50.21833929577597</v>
+        <v>60.42030081540754</v>
       </c>
       <c r="C88" t="n">
-        <v>1142406771.231374</v>
+        <v>1155300819.634167</v>
       </c>
       <c r="D88" t="n">
-        <v>3605016992.724805</v>
+        <v>4323245443.861979</v>
       </c>
       <c r="E88" t="n">
-        <v>5.731029416517607</v>
+        <v>5.74858524773328</v>
+      </c>
+      <c r="F88" t="n">
+        <v>19.92302540006368</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44876</v>
+        <v>44877</v>
       </c>
       <c r="B89" t="n">
-        <v>60.42030081540754</v>
+        <v>61.35807901320616</v>
       </c>
       <c r="C89" t="n">
-        <v>1155300819.634167</v>
+        <v>1084154748.003659</v>
       </c>
       <c r="D89" t="n">
-        <v>4323245443.861979</v>
+        <v>4367801819.169004</v>
       </c>
       <c r="E89" t="n">
-        <v>5.74858524773328</v>
+        <v>5.782020917104673</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1.030623310325463</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44877</v>
+        <v>44878</v>
       </c>
       <c r="B90" t="n">
-        <v>61.35807901320616</v>
+        <v>59.71422398291769</v>
       </c>
       <c r="C90" t="n">
-        <v>1084154748.003659</v>
+        <v>535006856.3032914</v>
       </c>
       <c r="D90" t="n">
-        <v>4367801819.169004</v>
+        <v>4270509835.214056</v>
       </c>
       <c r="E90" t="n">
-        <v>5.782020917104672</v>
+        <v>5.73129574792421</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-2.227481648273577</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44878</v>
+        <v>44879</v>
       </c>
       <c r="B91" t="n">
-        <v>59.71422398291769</v>
+        <v>57.45270425649563</v>
       </c>
       <c r="C91" t="n">
-        <v>535006856.3032914</v>
+        <v>371466147.4890471</v>
       </c>
       <c r="D91" t="n">
-        <v>4270509835.214056</v>
+        <v>4100583082.785998</v>
       </c>
       <c r="E91" t="n">
-        <v>5.73129574792421</v>
+        <v>5.644374921785226</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-3.979074138335048</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44879</v>
+        <v>44880</v>
       </c>
       <c r="B92" t="n">
-        <v>57.45270425649563</v>
+        <v>56.5952954056762</v>
       </c>
       <c r="C92" t="n">
-        <v>371466147.4890471</v>
+        <v>676137436.4416891</v>
       </c>
       <c r="D92" t="n">
-        <v>4100583082.785998</v>
+        <v>4058796404.581112</v>
       </c>
       <c r="E92" t="n">
-        <v>5.644374921785225</v>
+        <v>5.515926702115319</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-1.019042349862498</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="B93" t="n">
-        <v>56.5952954056762</v>
+        <v>58.04341022841282</v>
       </c>
       <c r="C93" t="n">
-        <v>676137436.4416891</v>
+        <v>426677960.510179</v>
       </c>
       <c r="D93" t="n">
-        <v>4058796404.581112</v>
+        <v>4159919279.949206</v>
       </c>
       <c r="E93" t="n">
-        <v>5.515926702115318</v>
+        <v>5.41845807563268</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2.491449811425839</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44881</v>
+        <v>44882</v>
       </c>
       <c r="B94" t="n">
-        <v>58.04341022841282</v>
+        <v>57.57383847636822</v>
       </c>
       <c r="C94" t="n">
-        <v>426677960.510179</v>
+        <v>425649180.2423818</v>
       </c>
       <c r="D94" t="n">
-        <v>4159919279.949206</v>
+        <v>4115004309.340445</v>
       </c>
       <c r="E94" t="n">
-        <v>5.418458075632679</v>
+        <v>5.324771446203723</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-1.079707743975988</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44882</v>
+        <v>44883</v>
       </c>
       <c r="B95" t="n">
-        <v>57.57383847636822</v>
+        <v>62.42192180257928</v>
       </c>
       <c r="C95" t="n">
-        <v>425649180.2423818</v>
+        <v>653021043.4170842</v>
       </c>
       <c r="D95" t="n">
-        <v>4115004309.340445</v>
+        <v>4457902228.781903</v>
       </c>
       <c r="E95" t="n">
-        <v>5.324771446203722</v>
+        <v>5.296280271657965</v>
+      </c>
+      <c r="F95" t="n">
+        <v>8.332869024295597</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44883</v>
+        <v>44884</v>
       </c>
       <c r="B96" t="n">
-        <v>62.42192180257928</v>
+        <v>62.62651218899903</v>
       </c>
       <c r="C96" t="n">
-        <v>653021043.4170842</v>
+        <v>521487643.8224141</v>
       </c>
       <c r="D96" t="n">
-        <v>4457902228.781903</v>
+        <v>4482532665.543462</v>
       </c>
       <c r="E96" t="n">
-        <v>5.296280271657964</v>
+        <v>5.20513470680809</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.5525118205270463</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44884</v>
+        <v>44885</v>
       </c>
       <c r="B97" t="n">
-        <v>62.62651218899903</v>
+        <v>63.83226559727977</v>
       </c>
       <c r="C97" t="n">
-        <v>521487643.8224141</v>
+        <v>413139604.4961932</v>
       </c>
       <c r="D97" t="n">
-        <v>4482532665.543462</v>
+        <v>4574034716.341881</v>
       </c>
       <c r="E97" t="n">
-        <v>5.20513470680809</v>
+        <v>5.131175759427886</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2.041302487359009</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44885</v>
+        <v>44886</v>
       </c>
       <c r="B98" t="n">
-        <v>63.83226559727977</v>
+        <v>62.02939572269752</v>
       </c>
       <c r="C98" t="n">
-        <v>413139604.4961932</v>
+        <v>479709994.3967647</v>
       </c>
       <c r="D98" t="n">
-        <v>4574034716.341881</v>
+        <v>4447316713.040254</v>
       </c>
       <c r="E98" t="n">
-        <v>5.131175759427885</v>
+        <v>4.99460618371162</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-2.770376946394737</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44886</v>
+        <v>44887</v>
       </c>
       <c r="B99" t="n">
-        <v>62.02939572269752</v>
+        <v>61.40086877446057</v>
       </c>
       <c r="C99" t="n">
-        <v>479709994.3967647</v>
+        <v>730321193.4984232</v>
       </c>
       <c r="D99" t="n">
-        <v>4447316713.040254</v>
+        <v>4408316403.898104</v>
       </c>
       <c r="E99" t="n">
-        <v>4.994606183711619</v>
+        <v>4.845601461042355</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-0.8769402239286128</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="B100" t="n">
-        <v>61.40086877446057</v>
+        <v>70.33974877307504</v>
       </c>
       <c r="C100" t="n">
-        <v>730321193.4984232</v>
+        <v>1189589688.415161</v>
       </c>
       <c r="D100" t="n">
-        <v>4408316403.898104</v>
+        <v>5040877131.963965</v>
       </c>
       <c r="E100" t="n">
-        <v>4.845601461042354</v>
+        <v>5.142266983732958</v>
+      </c>
+      <c r="F100" t="n">
+        <v>14.34925876705475</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44888</v>
+        <v>44889</v>
       </c>
       <c r="B101" t="n">
-        <v>70.33974877307504</v>
+        <v>79.21767368561552</v>
       </c>
       <c r="C101" t="n">
-        <v>1189589688.415161</v>
+        <v>1928291782.30346</v>
       </c>
       <c r="D101" t="n">
-        <v>5040877131.963965</v>
+        <v>5700775655.936979</v>
       </c>
       <c r="E101" t="n">
-        <v>5.142266983732957</v>
+        <v>6.068568518722643</v>
+      </c>
+      <c r="F101" t="n">
+        <v>13.09094641066786</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="B102" t="n">
-        <v>79.21767368561552</v>
+        <v>78.82250138216929</v>
       </c>
       <c r="C102" t="n">
-        <v>1928291782.30346</v>
+        <v>1099324059.799184</v>
       </c>
       <c r="D102" t="n">
-        <v>5700775655.936979</v>
+        <v>5651563586.506439</v>
       </c>
       <c r="E102" t="n">
-        <v>6.068568518722642</v>
+        <v>6.846569999386178</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-0.8632521677868321</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44890</v>
+        <v>44891</v>
       </c>
       <c r="B103" t="n">
-        <v>78.82250138216929</v>
+        <v>74.03599184673999</v>
       </c>
       <c r="C103" t="n">
-        <v>1099324059.799184</v>
+        <v>1001025245.376752</v>
       </c>
       <c r="D103" t="n">
-        <v>5651563586.506439</v>
+        <v>5307347294.260023</v>
       </c>
       <c r="E103" t="n">
-        <v>6.846569999386178</v>
+        <v>7.149955252594824</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-6.090638227414802</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44891</v>
+        <v>44892</v>
       </c>
       <c r="B104" t="n">
-        <v>74.03599184673999</v>
+        <v>76.34285497187716</v>
       </c>
       <c r="C104" t="n">
-        <v>1001025245.376752</v>
+        <v>852806768.4751929</v>
       </c>
       <c r="D104" t="n">
-        <v>5307347294.260023</v>
+        <v>5468593368.990529</v>
       </c>
       <c r="E104" t="n">
-        <v>7.149955252594823</v>
+        <v>7.474933884795978</v>
+      </c>
+      <c r="F104" t="n">
+        <v>3.038167012452653</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44892</v>
+        <v>44893</v>
       </c>
       <c r="B105" t="n">
-        <v>76.34285497187716</v>
+        <v>75.0120927452128</v>
       </c>
       <c r="C105" t="n">
-        <v>852806768.4751929</v>
+        <v>684538956.7139164</v>
       </c>
       <c r="D105" t="n">
-        <v>5468593368.990529</v>
+        <v>5377060978.484422</v>
       </c>
       <c r="E105" t="n">
-        <v>7.474933884795977</v>
+        <v>7.651139308572184</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-1.673783079669788</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="B106" t="n">
-        <v>75.0120927452128</v>
+        <v>74.16045728590008</v>
       </c>
       <c r="C106" t="n">
-        <v>684538956.7139164</v>
+        <v>918553320.2228844</v>
       </c>
       <c r="D106" t="n">
-        <v>5377060978.484422</v>
+        <v>5317738971.52044</v>
       </c>
       <c r="E106" t="n">
-        <v>7.651139308572183</v>
+        <v>7.778189473626728</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-1.103242221007916</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="B107" t="n">
-        <v>74.16045728590008</v>
+        <v>75.98352249856254</v>
       </c>
       <c r="C107" t="n">
-        <v>918553320.2228844</v>
+        <v>821050361.074374</v>
       </c>
       <c r="D107" t="n">
-        <v>5317738971.52044</v>
+        <v>5468893263.61905</v>
       </c>
       <c r="E107" t="n">
-        <v>7.778189473626727</v>
+        <v>7.899768436407772</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2.842454150309526</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="B108" t="n">
-        <v>75.98352249856254</v>
+        <v>79.34368748415858</v>
       </c>
       <c r="C108" t="n">
-        <v>821050361.074374</v>
+        <v>750148809.1975075</v>
       </c>
       <c r="D108" t="n">
-        <v>5468893263.61905</v>
+        <v>5715045823.83227</v>
       </c>
       <c r="E108" t="n">
-        <v>7.899768436407771</v>
+        <v>8.12152860871867</v>
+      </c>
+      <c r="F108" t="n">
+        <v>4.500957476180978</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44896</v>
+        <v>44897</v>
       </c>
       <c r="B109" t="n">
-        <v>79.34368748415858</v>
+        <v>77.51143375331409</v>
       </c>
       <c r="C109" t="n">
-        <v>750148809.1975075</v>
+        <v>684301853.2505013</v>
       </c>
       <c r="D109" t="n">
-        <v>5715045823.83227</v>
+        <v>5564606069.386775</v>
       </c>
       <c r="E109" t="n">
-        <v>8.12152860871867</v>
+        <v>8.165091273369731</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-2.632345550374193</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44897</v>
+        <v>44898</v>
       </c>
       <c r="B110" t="n">
-        <v>77.51143375331409</v>
+        <v>78.17862214534081</v>
       </c>
       <c r="C110" t="n">
-        <v>684301853.2505013</v>
+        <v>465826213.9514921</v>
       </c>
       <c r="D110" t="n">
-        <v>5564606069.386775</v>
+        <v>5593771132.575497</v>
       </c>
       <c r="E110" t="n">
-        <v>8.165091273369731</v>
+        <v>8.370270876975798</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.5241173018368794</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44898</v>
+        <v>44899</v>
       </c>
       <c r="B111" t="n">
-        <v>78.17862214534081</v>
+        <v>76.63000514317878</v>
       </c>
       <c r="C111" t="n">
-        <v>465826213.9514921</v>
+        <v>353639930.9159965</v>
       </c>
       <c r="D111" t="n">
-        <v>5593771132.575497</v>
+        <v>5532893871.84004</v>
       </c>
       <c r="E111" t="n">
-        <v>8.370270876975798</v>
+        <v>8.503888791730052</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-1.088304460311862</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44899</v>
+        <v>44900</v>
       </c>
       <c r="B112" t="n">
-        <v>76.63000514317878</v>
+        <v>77.32452875705778</v>
       </c>
       <c r="C112" t="n">
-        <v>353639930.9159965</v>
+        <v>334088097.5540264</v>
       </c>
       <c r="D112" t="n">
-        <v>5532893871.84004</v>
+        <v>5541128038.93343</v>
       </c>
       <c r="E112" t="n">
-        <v>8.503888791730052</v>
+        <v>8.69817222855937</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.148822068236254</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44900</v>
+        <v>44901</v>
       </c>
       <c r="B113" t="n">
-        <v>77.32452875705778</v>
+        <v>80.25674892637498</v>
       </c>
       <c r="C113" t="n">
-        <v>334088097.5540264</v>
+        <v>1077961016.625556</v>
       </c>
       <c r="D113" t="n">
-        <v>5541128038.93343</v>
+        <v>5764526836.985326</v>
       </c>
       <c r="E113" t="n">
-        <v>8.69817222855937</v>
+        <v>8.993136060265174</v>
+      </c>
+      <c r="F113" t="n">
+        <v>4.031648366221408</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44901</v>
+        <v>44902</v>
       </c>
       <c r="B114" t="n">
-        <v>80.25674892637498</v>
+        <v>79.97464735470663</v>
       </c>
       <c r="C114" t="n">
-        <v>1077961016.625556</v>
+        <v>602448830.7228184</v>
       </c>
       <c r="D114" t="n">
-        <v>5764526836.985326</v>
+        <v>5719789689.319062</v>
       </c>
       <c r="E114" t="n">
-        <v>8.993136060265174</v>
+        <v>9.255175406089489</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-0.7760766656376594</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44902</v>
+        <v>44903</v>
       </c>
       <c r="B115" t="n">
-        <v>79.97464735470663</v>
+        <v>77.01833312448589</v>
       </c>
       <c r="C115" t="n">
-        <v>602448830.7228184</v>
+        <v>615306133.0426438</v>
       </c>
       <c r="D115" t="n">
-        <v>5719789689.319062</v>
+        <v>5540264643.884852</v>
       </c>
       <c r="E115" t="n">
-        <v>9.255175406089489</v>
+        <v>9.386530040887399</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-3.138665146542863</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44903</v>
+        <v>44904</v>
       </c>
       <c r="B116" t="n">
-        <v>77.01833312448589</v>
+        <v>78.50699774900671</v>
       </c>
       <c r="C116" t="n">
-        <v>615306133.0426438</v>
+        <v>673164748.1716976</v>
       </c>
       <c r="D116" t="n">
-        <v>5540264643.884852</v>
+        <v>5632220918.313187</v>
       </c>
       <c r="E116" t="n">
-        <v>9.386530040887399</v>
+        <v>9.29811478323305</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1.659781262070803</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44904</v>
+        <v>44905</v>
       </c>
       <c r="B117" t="n">
-        <v>78.50699774900671</v>
+        <v>76.39704910559027</v>
       </c>
       <c r="C117" t="n">
-        <v>673164748.1716976</v>
+        <v>490810311.9391588</v>
       </c>
       <c r="D117" t="n">
-        <v>5632220918.313187</v>
+        <v>5483135585.940627</v>
       </c>
       <c r="E117" t="n">
-        <v>9.29811478323305</v>
+        <v>8.639855598246232</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-2.647007895017184</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44905</v>
+        <v>44906</v>
       </c>
       <c r="B118" t="n">
-        <v>76.39704910559027</v>
+        <v>76.33636818557171</v>
       </c>
       <c r="C118" t="n">
-        <v>490810311.9391588</v>
+        <v>289522782.4782655</v>
       </c>
       <c r="D118" t="n">
-        <v>5483135585.940627</v>
+        <v>5480632163.12024</v>
       </c>
       <c r="E118" t="n">
-        <v>8.639855598246232</v>
+        <v>8.500820518477196</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-0.04565677395987899</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44906</v>
+        <v>44907</v>
       </c>
       <c r="B119" t="n">
-        <v>76.33636818557171</v>
+        <v>76.60367125185714</v>
       </c>
       <c r="C119" t="n">
-        <v>289522782.4782655</v>
+        <v>306658466.9951732</v>
       </c>
       <c r="D119" t="n">
-        <v>5480632163.12024</v>
+        <v>5496667033.555096</v>
       </c>
       <c r="E119" t="n">
-        <v>8.500820518477196</v>
+        <v>8.370701463828626</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.2925733739760128</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44907</v>
+        <v>44908</v>
       </c>
       <c r="B120" t="n">
-        <v>76.60367125185714</v>
+        <v>76.20364583099658</v>
       </c>
       <c r="C120" t="n">
-        <v>306658466.9951732</v>
+        <v>488596574.9292319</v>
       </c>
       <c r="D120" t="n">
-        <v>5496667033.555096</v>
+        <v>5475952794.699594</v>
       </c>
       <c r="E120" t="n">
-        <v>8.370701463828626</v>
+        <v>8.11976556169693</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-0.3768508939881121</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44908</v>
+        <v>44909</v>
       </c>
       <c r="B121" t="n">
-        <v>76.20364583099658</v>
+        <v>77.27061199000913</v>
       </c>
       <c r="C121" t="n">
-        <v>488596574.9292319</v>
+        <v>702070992.7248178</v>
       </c>
       <c r="D121" t="n">
-        <v>5475952794.699594</v>
+        <v>5557198156.23576</v>
       </c>
       <c r="E121" t="n">
-        <v>8.11976556169693</v>
+        <v>7.70154994383438</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1.483675345317192</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44909</v>
+        <v>44910</v>
       </c>
       <c r="B122" t="n">
-        <v>77.27061199000913</v>
+        <v>75.46815716615492</v>
       </c>
       <c r="C122" t="n">
-        <v>702070992.7248178</v>
+        <v>616806296.8416747</v>
       </c>
       <c r="D122" t="n">
-        <v>5557198156.23576</v>
+        <v>5421397700.824716</v>
       </c>
       <c r="E122" t="n">
-        <v>7.70154994383438</v>
+        <v>7.102278041104791</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-2.44368567744272</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44910</v>
+        <v>44911</v>
       </c>
       <c r="B123" t="n">
-        <v>75.46815716615492</v>
+        <v>72.16102150365391</v>
       </c>
       <c r="C123" t="n">
-        <v>616806296.8416747</v>
+        <v>465150294.1282236</v>
       </c>
       <c r="D123" t="n">
-        <v>5421397700.824716</v>
+        <v>5193733410.244001</v>
       </c>
       <c r="E123" t="n">
-        <v>7.102278041104791</v>
+        <v>6.508900445202937</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-4.199365240186703</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44911</v>
+        <v>44912</v>
       </c>
       <c r="B124" t="n">
-        <v>72.16102150365391</v>
+        <v>66.15662725893038</v>
       </c>
       <c r="C124" t="n">
-        <v>465150294.1282236</v>
+        <v>678135313.8080158</v>
       </c>
       <c r="D124" t="n">
-        <v>5193733410.244001</v>
+        <v>4738830967.435101</v>
       </c>
       <c r="E124" t="n">
-        <v>6.508900445202937</v>
+        <v>5.942699174586308</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-8.758679101851119</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44912</v>
+        <v>44913</v>
       </c>
       <c r="B125" t="n">
-        <v>66.15662725893038</v>
+        <v>65.05304117471312</v>
       </c>
       <c r="C125" t="n">
-        <v>678135313.8080158</v>
+        <v>744894342.1233875</v>
       </c>
       <c r="D125" t="n">
-        <v>4738830967.435101</v>
+        <v>4672535923.169461</v>
       </c>
       <c r="E125" t="n">
-        <v>5.942699174586308</v>
+        <v>5.784481460426715</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-1.398974656855545</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44913</v>
+        <v>44914</v>
       </c>
       <c r="B126" t="n">
-        <v>65.05304117471312</v>
+        <v>64.41279332945737</v>
       </c>
       <c r="C126" t="n">
-        <v>744894342.1233875</v>
+        <v>367615560.1359698</v>
       </c>
       <c r="D126" t="n">
-        <v>4672535923.169461</v>
+        <v>4651380829.452069</v>
       </c>
       <c r="E126" t="n">
-        <v>5.784481460426715</v>
+        <v>5.671388524367049</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-0.4527540090701332</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="B127" t="n">
-        <v>64.41279332945737</v>
+        <v>63.33441683963422</v>
       </c>
       <c r="C127" t="n">
-        <v>367615560.1359698</v>
+        <v>497189802.8607032</v>
       </c>
       <c r="D127" t="n">
-        <v>4651380829.452069</v>
+        <v>4565617352.811687</v>
       </c>
       <c r="E127" t="n">
-        <v>5.671388524367049</v>
+        <v>5.70300664684917</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-1.84382831217208</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="B128" t="n">
-        <v>63.33441683963422</v>
+        <v>65.69843401378299</v>
       </c>
       <c r="C128" t="n">
-        <v>497189802.8607032</v>
+        <v>526352260.5777118</v>
       </c>
       <c r="D128" t="n">
-        <v>4565617352.811687</v>
+        <v>4725033513.921309</v>
       </c>
       <c r="E128" t="n">
-        <v>5.70300664684917</v>
+        <v>5.470965093099882</v>
+      </c>
+      <c r="F128" t="n">
+        <v>3.491667145768274</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44916</v>
+        <v>44917</v>
       </c>
       <c r="B129" t="n">
-        <v>65.69843401378299</v>
+        <v>65.29725763304589</v>
       </c>
       <c r="C129" t="n">
-        <v>526352260.5777118</v>
+        <v>390446191.5202191</v>
       </c>
       <c r="D129" t="n">
-        <v>4725033513.921309</v>
+        <v>4691644861.319034</v>
       </c>
       <c r="E129" t="n">
-        <v>5.470965093099882</v>
+        <v>5.196704543718917</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-0.7066331382391766</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44917</v>
+        <v>44918</v>
       </c>
       <c r="B130" t="n">
-        <v>65.29725763304589</v>
+        <v>66.1481362525174</v>
       </c>
       <c r="C130" t="n">
-        <v>390446191.5202191</v>
+        <v>383009015.434402</v>
       </c>
       <c r="D130" t="n">
-        <v>4691644861.319034</v>
+        <v>4752888488.560825</v>
       </c>
       <c r="E130" t="n">
-        <v>5.196704543718917</v>
+        <v>5.360664005010938</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1.305376452227325</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44918</v>
+        <v>44919</v>
       </c>
       <c r="B131" t="n">
-        <v>66.1481362525174</v>
+        <v>65.77947165467032</v>
       </c>
       <c r="C131" t="n">
-        <v>383009015.434402</v>
+        <v>317713248.2225846</v>
       </c>
       <c r="D131" t="n">
-        <v>4752888488.560825</v>
+        <v>4730887378.548766</v>
       </c>
       <c r="E131" t="n">
-        <v>5.360664005010938</v>
+        <v>5.483685730233266</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-0.4628997727384343</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44919</v>
+        <v>44920</v>
       </c>
       <c r="B132" t="n">
-        <v>65.77947165467032</v>
+        <v>65.80945823515763</v>
       </c>
       <c r="C132" t="n">
-        <v>317713248.2225846</v>
+        <v>183466972.0433859</v>
       </c>
       <c r="D132" t="n">
-        <v>4730887378.548766</v>
+        <v>4727659480.162013</v>
       </c>
       <c r="E132" t="n">
-        <v>5.483685730233266</v>
+        <v>5.579508480054569</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-0.06823029441346273</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44920</v>
+        <v>44921</v>
       </c>
       <c r="B133" t="n">
-        <v>65.80945823515763</v>
+        <v>69.24995490495829</v>
       </c>
       <c r="C133" t="n">
-        <v>183466972.0433859</v>
+        <v>364541550.8302792</v>
       </c>
       <c r="D133" t="n">
-        <v>4727659480.162013</v>
+        <v>4971979144.81685</v>
       </c>
       <c r="E133" t="n">
-        <v>5.579508480054569</v>
+        <v>5.625391789715603</v>
+      </c>
+      <c r="F133" t="n">
+        <v>5.167877798306741</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44921</v>
+        <v>44922</v>
       </c>
       <c r="B134" t="n">
-        <v>69.24995490495829</v>
+        <v>70.51867915141914</v>
       </c>
       <c r="C134" t="n">
-        <v>364541550.8302792</v>
+        <v>493702190.4521678</v>
       </c>
       <c r="D134" t="n">
-        <v>4971979144.81685</v>
+        <v>5062685167.690076</v>
       </c>
       <c r="E134" t="n">
-        <v>5.625391789715603</v>
+        <v>5.610841302267135</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1.824344395486555</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44922</v>
+        <v>44923</v>
       </c>
       <c r="B135" t="n">
-        <v>70.51867915141914</v>
+        <v>68.72200099315974</v>
       </c>
       <c r="C135" t="n">
-        <v>493702190.4521678</v>
+        <v>465306588.0842587</v>
       </c>
       <c r="D135" t="n">
-        <v>5062685167.690076</v>
+        <v>4941955081.543958</v>
       </c>
       <c r="E135" t="n">
-        <v>5.610841302267135</v>
+        <v>5.647629895498016</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-2.384704601356891</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44923</v>
+        <v>44924</v>
       </c>
       <c r="B136" t="n">
-        <v>68.72200099315974</v>
+        <v>66.27645915722096</v>
       </c>
       <c r="C136" t="n">
-        <v>465306588.0842587</v>
+        <v>480990365.7907058</v>
       </c>
       <c r="D136" t="n">
-        <v>4941955081.543958</v>
+        <v>4766597000.14695</v>
       </c>
       <c r="E136" t="n">
-        <v>5.647629895498016</v>
+        <v>5.760450615720786</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-3.548354416491839</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44924</v>
+        <v>44925</v>
       </c>
       <c r="B137" t="n">
-        <v>66.27645915722096</v>
+        <v>66.73265407429477</v>
       </c>
       <c r="C137" t="n">
-        <v>480990365.7907058</v>
+        <v>354956145.4639465</v>
       </c>
       <c r="D137" t="n">
-        <v>4766597000.14695</v>
+        <v>4801366820.096773</v>
       </c>
       <c r="E137" t="n">
-        <v>5.760450615720786</v>
+        <v>5.812377295961565</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.7294474432965714</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44925</v>
+        <v>44926</v>
       </c>
       <c r="B138" t="n">
-        <v>66.73265407429477</v>
+        <v>67.94093637181042</v>
       </c>
       <c r="C138" t="n">
-        <v>354956145.4639465</v>
+        <v>348504470.4786424</v>
       </c>
       <c r="D138" t="n">
-        <v>4801366820.096773</v>
+        <v>4892375380.535317</v>
       </c>
       <c r="E138" t="n">
-        <v>5.812377295961565</v>
+        <v>5.69714406010012</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1.895471932234294</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44926</v>
+        <v>44927</v>
       </c>
       <c r="B139" t="n">
-        <v>67.94093637181042</v>
+        <v>69.94656299180124</v>
       </c>
       <c r="C139" t="n">
-        <v>348504470.4786424</v>
+        <v>392606818.6689225</v>
       </c>
       <c r="D139" t="n">
-        <v>4892375380.535317</v>
+        <v>5044935487.626616</v>
       </c>
       <c r="E139" t="n">
-        <v>5.69714406010012</v>
+        <v>5.600661527387271</v>
+      </c>
+      <c r="F139" t="n">
+        <v>3.11832382482895</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44927</v>
+        <v>44928</v>
       </c>
       <c r="B140" t="n">
-        <v>69.94656299180124</v>
+        <v>70.76254511148379</v>
       </c>
       <c r="C140" t="n">
-        <v>392606818.6689225</v>
+        <v>365868954.4024547</v>
       </c>
       <c r="D140" t="n">
-        <v>5044935487.626616</v>
+        <v>5085704717.232292</v>
       </c>
       <c r="E140" t="n">
-        <v>5.600661527387271</v>
+        <v>5.458188460510962</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.808121921591809</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44928</v>
+        <v>44929</v>
       </c>
       <c r="B141" t="n">
-        <v>70.76254511148379</v>
+        <v>74.80552604397208</v>
       </c>
       <c r="C141" t="n">
-        <v>365868954.4024547</v>
+        <v>716513068.2499348</v>
       </c>
       <c r="D141" t="n">
-        <v>5085704717.232292</v>
+        <v>5402671975.005182</v>
       </c>
       <c r="E141" t="n">
-        <v>5.458188460510962</v>
+        <v>5.406282797621818</v>
+      </c>
+      <c r="F141" t="n">
+        <v>6.232513985699661</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44929</v>
+        <v>44930</v>
       </c>
       <c r="B142" t="n">
-        <v>74.80552604397208</v>
+        <v>75.63497905947953</v>
       </c>
       <c r="C142" t="n">
-        <v>716513068.2499348</v>
+        <v>583931473.8007065</v>
       </c>
       <c r="D142" t="n">
-        <v>5402671975.005182</v>
+        <v>5442767786.283273</v>
       </c>
       <c r="E142" t="n">
-        <v>5.406282797621818</v>
+        <v>5.348837230081718</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.7421478013766025</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44930</v>
+        <v>44931</v>
       </c>
       <c r="B143" t="n">
-        <v>75.63497905947953</v>
+        <v>75.50320045280495</v>
       </c>
       <c r="C143" t="n">
-        <v>583931473.8007065</v>
+        <v>584502485.2211019</v>
       </c>
       <c r="D143" t="n">
-        <v>5442767786.283273</v>
+        <v>5424934949.187854</v>
       </c>
       <c r="E143" t="n">
-        <v>5.348837230081718</v>
+        <v>5.135907309126874</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-0.3276428059334258</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44931</v>
+        <v>44932</v>
       </c>
       <c r="B144" t="n">
-        <v>75.50320045280495</v>
+        <v>74.1609292913179</v>
       </c>
       <c r="C144" t="n">
-        <v>584502485.2211019</v>
+        <v>456778568.8175618</v>
       </c>
       <c r="D144" t="n">
-        <v>5424934949.187854</v>
+        <v>5343238312.364409</v>
       </c>
       <c r="E144" t="n">
-        <v>5.135907309126874</v>
+        <v>4.888981964898167</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-1.505946847080164</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44932</v>
+        <v>44933</v>
       </c>
       <c r="B145" t="n">
-        <v>74.1609292913179</v>
+        <v>75.98645338414858</v>
       </c>
       <c r="C145" t="n">
-        <v>456778568.8175618</v>
+        <v>588419265.2254007</v>
       </c>
       <c r="D145" t="n">
-        <v>5343238312.364409</v>
+        <v>5470762166.196138</v>
       </c>
       <c r="E145" t="n">
-        <v>4.888981964898167</v>
+        <v>4.847153937367786</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2.38663983106715</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44933</v>
+        <v>44934</v>
       </c>
       <c r="B146" t="n">
-        <v>75.98645338414858</v>
+        <v>76.36462490558512</v>
       </c>
       <c r="C146" t="n">
-        <v>588419265.2254007</v>
+        <v>344733345.8783305</v>
       </c>
       <c r="D146" t="n">
-        <v>5470762166.196138</v>
+        <v>5494916641.781551</v>
       </c>
       <c r="E146" t="n">
-        <v>4.847153937367786</v>
+        <v>4.743802264156896</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.4415193870913159</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44934</v>
+        <v>44935</v>
       </c>
       <c r="B147" t="n">
-        <v>76.36462490558512</v>
+        <v>77.51119147542811</v>
       </c>
       <c r="C147" t="n">
-        <v>344733345.8783305</v>
+        <v>397790375.4716201</v>
       </c>
       <c r="D147" t="n">
-        <v>5494916641.781551</v>
+        <v>5564065794.113834</v>
       </c>
       <c r="E147" t="n">
-        <v>4.743802264156896</v>
+        <v>4.794106853042342</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1.258420406353311</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="B148" t="n">
-        <v>77.51119147542811</v>
+        <v>81.76764842597949</v>
       </c>
       <c r="C148" t="n">
-        <v>397790375.4716201</v>
+        <v>892417536.1188406</v>
       </c>
       <c r="D148" t="n">
-        <v>5564065794.113834</v>
+        <v>5898953185.940933</v>
       </c>
       <c r="E148" t="n">
-        <v>4.794106853042342</v>
+        <v>5.105620814868018</v>
+      </c>
+      <c r="F148" t="n">
+        <v>6.018753268183352</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="B149" t="n">
-        <v>81.76764842597949</v>
+        <v>80.82184246408968</v>
       </c>
       <c r="C149" t="n">
-        <v>892417536.1188406</v>
+        <v>625840487.0282551</v>
       </c>
       <c r="D149" t="n">
-        <v>5898953185.940933</v>
+        <v>5818365995.127759</v>
       </c>
       <c r="E149" t="n">
-        <v>5.105620814868018</v>
+        <v>5.3213703859248</v>
+      </c>
+      <c r="F149" t="n">
+        <v>-1.366126976651361</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="B150" t="n">
-        <v>80.82184246408968</v>
+        <v>84.40356860873136</v>
       </c>
       <c r="C150" t="n">
-        <v>625840487.0282551</v>
+        <v>713161752.1842259</v>
       </c>
       <c r="D150" t="n">
-        <v>5818365995.127759</v>
+        <v>6066667562.00948</v>
       </c>
       <c r="E150" t="n">
-        <v>5.3213703859248</v>
+        <v>5.785562717439023</v>
+      </c>
+      <c r="F150" t="n">
+        <v>4.267548089784068</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44938</v>
+        <v>44939</v>
       </c>
       <c r="B151" t="n">
-        <v>84.40356860873136</v>
+        <v>85.94019666166511</v>
       </c>
       <c r="C151" t="n">
-        <v>713161752.1842259</v>
+        <v>1016633573.357761</v>
       </c>
       <c r="D151" t="n">
-        <v>6066667562.00948</v>
+        <v>6195785661.364764</v>
       </c>
       <c r="E151" t="n">
-        <v>5.785562717439023</v>
+        <v>6.287609585334689</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2.128320004937212</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44939</v>
+        <v>44940</v>
       </c>
       <c r="B152" t="n">
-        <v>85.94019666166511</v>
+        <v>86.43957194320865</v>
       </c>
       <c r="C152" t="n">
-        <v>1016633573.357761</v>
+        <v>755466357.0884287</v>
       </c>
       <c r="D152" t="n">
-        <v>6195785661.364764</v>
+        <v>6218154640.207044</v>
       </c>
       <c r="E152" t="n">
-        <v>6.287609585334689</v>
+        <v>6.816448475126256</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.3610353886475792</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44940</v>
+        <v>44941</v>
       </c>
       <c r="B153" t="n">
-        <v>86.43957194320865</v>
+        <v>87.59572979350523</v>
       </c>
       <c r="C153" t="n">
-        <v>755466357.0884287</v>
+        <v>1307463071.042783</v>
       </c>
       <c r="D153" t="n">
-        <v>6218154640.207044</v>
+        <v>6327304069.914814</v>
       </c>
       <c r="E153" t="n">
-        <v>6.816448475126256</v>
+        <v>7.389167083910151</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1.755334758032578</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44941</v>
+        <v>44942</v>
       </c>
       <c r="B154" t="n">
-        <v>87.59572979350523</v>
+        <v>87.26272808991853</v>
       </c>
       <c r="C154" t="n">
-        <v>1307463071.042783</v>
+        <v>574298821.4576117</v>
       </c>
       <c r="D154" t="n">
-        <v>6327304069.914814</v>
+        <v>6289653588.125069</v>
       </c>
       <c r="E154" t="n">
-        <v>7.389167083910151</v>
+        <v>7.760557894309761</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-0.5950477703255408</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="B155" t="n">
-        <v>87.26272808991853</v>
+        <v>85.77920628447862</v>
       </c>
       <c r="C155" t="n">
-        <v>574298821.4576117</v>
+        <v>667289823.9710304</v>
       </c>
       <c r="D155" t="n">
-        <v>6289653588.125069</v>
+        <v>6177377858.982698</v>
       </c>
       <c r="E155" t="n">
-        <v>7.760557894309761</v>
+        <v>7.931322249259974</v>
+      </c>
+      <c r="F155" t="n">
+        <v>-1.785086055523755</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44943</v>
+        <v>44944</v>
       </c>
       <c r="B156" t="n">
-        <v>85.77920628447862</v>
+        <v>87.19586026714069</v>
       </c>
       <c r="C156" t="n">
-        <v>667289823.9710304</v>
+        <v>709427275.4596727</v>
       </c>
       <c r="D156" t="n">
-        <v>6177377858.982698</v>
+        <v>6268273858.518424</v>
       </c>
       <c r="E156" t="n">
-        <v>7.931322249259974</v>
+        <v>8.082201649386512</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1.471433375304243</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44944</v>
+        <v>44945</v>
       </c>
       <c r="B157" t="n">
-        <v>87.19586026714069</v>
+        <v>82.86505419180723</v>
       </c>
       <c r="C157" t="n">
-        <v>709427275.4596727</v>
+        <v>775894311.4650375</v>
       </c>
       <c r="D157" t="n">
-        <v>6268273858.518424</v>
+        <v>5979086942.812031</v>
       </c>
       <c r="E157" t="n">
-        <v>8.082201649386512</v>
+        <v>7.924667483780413</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-4.613501615175853</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="B158" t="n">
-        <v>82.86505419180723</v>
+        <v>84.17901540614851</v>
       </c>
       <c r="C158" t="n">
-        <v>775894311.4650375</v>
+        <v>472585076.4345888</v>
       </c>
       <c r="D158" t="n">
-        <v>5979086942.812031</v>
+        <v>6070499480.895799</v>
       </c>
       <c r="E158" t="n">
-        <v>7.924667483780413</v>
+        <v>7.870876560865358</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1.528871196523784</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44946</v>
+        <v>44947</v>
       </c>
       <c r="B159" t="n">
-        <v>84.17901540614851</v>
+        <v>90.61230269240818</v>
       </c>
       <c r="C159" t="n">
-        <v>472585076.4345888</v>
+        <v>651888250.0420978</v>
       </c>
       <c r="D159" t="n">
-        <v>6070499480.895799</v>
+        <v>6545927470.230561</v>
       </c>
       <c r="E159" t="n">
-        <v>7.870876560865358</v>
+        <v>8.048483947067147</v>
+      </c>
+      <c r="F159" t="n">
+        <v>7.831777118686212</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44947</v>
+        <v>44948</v>
       </c>
       <c r="B160" t="n">
-        <v>90.61230269240818</v>
+        <v>87.97915901830183</v>
       </c>
       <c r="C160" t="n">
-        <v>651888250.0420978</v>
+        <v>688622793.1964893</v>
       </c>
       <c r="D160" t="n">
-        <v>6545927470.230561</v>
+        <v>6365542864.689391</v>
       </c>
       <c r="E160" t="n">
-        <v>8.048483947067147</v>
+        <v>8.043111616064023</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-2.755676813736785</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44948</v>
+        <v>44949</v>
       </c>
       <c r="B161" t="n">
-        <v>87.97915901830183</v>
+        <v>87.66031712090678</v>
       </c>
       <c r="C161" t="n">
-        <v>688622793.1964893</v>
+        <v>542779706.4021922</v>
       </c>
       <c r="D161" t="n">
-        <v>6365542864.689391</v>
+        <v>6321618689.940053</v>
       </c>
       <c r="E161" t="n">
-        <v>8.043111616064023</v>
+        <v>7.936428359914156</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-0.6900303035109911</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44949</v>
+        <v>44950</v>
       </c>
       <c r="B162" t="n">
-        <v>87.66031712090678</v>
+        <v>90.18797883862437</v>
       </c>
       <c r="C162" t="n">
-        <v>542779706.4021922</v>
+        <v>697998281.4720387</v>
       </c>
       <c r="D162" t="n">
-        <v>6321618689.940053</v>
+        <v>6499766377.444882</v>
       </c>
       <c r="E162" t="n">
-        <v>7.936428359914156</v>
+        <v>7.870283438782335</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2.818070754383295</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44950</v>
+        <v>44951</v>
       </c>
       <c r="B163" t="n">
-        <v>90.18797883862437</v>
+        <v>87.18996220011184</v>
       </c>
       <c r="C163" t="n">
-        <v>697998281.4720387</v>
+        <v>506719213.5666232</v>
       </c>
       <c r="D163" t="n">
-        <v>6499766377.444882</v>
+        <v>6277599169.800346</v>
       </c>
       <c r="E163" t="n">
-        <v>7.870283438782335</v>
+        <v>7.782868959674781</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-3.41807989307874</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44951</v>
+        <v>44952</v>
       </c>
       <c r="B164" t="n">
-        <v>87.18996220011184</v>
+        <v>89.61990765796676</v>
       </c>
       <c r="C164" t="n">
-        <v>506719213.5666232</v>
+        <v>503904018.2459658</v>
       </c>
       <c r="D164" t="n">
-        <v>6277599169.800346</v>
+        <v>6453728611.979287</v>
       </c>
       <c r="E164" t="n">
-        <v>7.782868959674781</v>
+        <v>7.793528698010675</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2.805681557787998</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44952</v>
+        <v>44953</v>
       </c>
       <c r="B165" t="n">
-        <v>89.61990765796676</v>
+        <v>87.530362534028</v>
       </c>
       <c r="C165" t="n">
-        <v>503904018.2459658</v>
+        <v>529624444.7454207</v>
       </c>
       <c r="D165" t="n">
-        <v>6453728611.979287</v>
+        <v>6321330923.543332</v>
       </c>
       <c r="E165" t="n">
-        <v>7.793528698010675</v>
+        <v>7.586999324727396</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-2.051491415213846</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="B166" t="n">
-        <v>87.530362534028</v>
+        <v>88.86857253531601</v>
       </c>
       <c r="C166" t="n">
-        <v>529624444.7454207</v>
+        <v>460938919.4428915</v>
       </c>
       <c r="D166" t="n">
-        <v>6321330923.543332</v>
+        <v>6411922062.142031</v>
       </c>
       <c r="E166" t="n">
-        <v>7.586999324727396</v>
+        <v>7.197864506581737</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1.433102295931055</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44954</v>
+        <v>44955</v>
       </c>
       <c r="B167" t="n">
-        <v>88.86857253531601</v>
+        <v>89.65820413215734</v>
       </c>
       <c r="C167" t="n">
-        <v>460938919.4428915</v>
+        <v>424439231.5120466</v>
       </c>
       <c r="D167" t="n">
-        <v>6411922062.142031</v>
+        <v>6441319216.207349</v>
       </c>
       <c r="E167" t="n">
-        <v>7.197864506581737</v>
+        <v>6.764352208849839</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.4584764721157208</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44955</v>
+        <v>44956</v>
       </c>
       <c r="B168" t="n">
-        <v>89.65820413215734</v>
+        <v>95.04639263024244</v>
       </c>
       <c r="C168" t="n">
-        <v>424439231.5120466</v>
+        <v>1194301591.04556</v>
       </c>
       <c r="D168" t="n">
-        <v>6441319216.207349</v>
+        <v>6865495599.102029</v>
       </c>
       <c r="E168" t="n">
-        <v>6.764352208849839</v>
+        <v>6.573193273109238</v>
+      </c>
+      <c r="F168" t="n">
+        <v>6.585240828111538</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44956</v>
+        <v>44957</v>
       </c>
       <c r="B169" t="n">
-        <v>95.04639263024244</v>
+        <v>91.44280837997485</v>
       </c>
       <c r="C169" t="n">
-        <v>1194301591.04556</v>
+        <v>758177840.1981457</v>
       </c>
       <c r="D169" t="n">
-        <v>6865495599.102029</v>
+        <v>6570341603.318204</v>
       </c>
       <c r="E169" t="n">
-        <v>6.573193273109238</v>
+        <v>6.228927617981351</v>
+      </c>
+      <c r="F169" t="n">
+        <v>-4.299092345531907</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44957</v>
+        <v>44958</v>
       </c>
       <c r="B170" t="n">
-        <v>91.44280837997485</v>
+        <v>94.40388194820531</v>
       </c>
       <c r="C170" t="n">
-        <v>758177840.1981457</v>
+        <v>901755417.8536851</v>
       </c>
       <c r="D170" t="n">
-        <v>6570341603.318204</v>
+        <v>6817827465.647194</v>
       </c>
       <c r="E170" t="n">
-        <v>6.228927617981351</v>
+        <v>5.983724959185274</v>
+      </c>
+      <c r="F170" t="n">
+        <v>3.766712254413118</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44958</v>
+        <v>44959</v>
       </c>
       <c r="B171" t="n">
-        <v>94.40388194820531</v>
+        <v>100.5265748303722</v>
       </c>
       <c r="C171" t="n">
-        <v>901755417.8536851</v>
+        <v>1165381338.953089</v>
       </c>
       <c r="D171" t="n">
-        <v>6817827465.647194</v>
+        <v>7251965131.798842</v>
       </c>
       <c r="E171" t="n">
-        <v>5.983724959185274</v>
+        <v>6.3327606173858</v>
+      </c>
+      <c r="F171" t="n">
+        <v>6.367683376253308</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44959</v>
+        <v>44960</v>
       </c>
       <c r="B172" t="n">
-        <v>100.5265748303722</v>
+        <v>98.97460830274356</v>
       </c>
       <c r="C172" t="n">
-        <v>1165381338.953089</v>
+        <v>764986568.2063903</v>
       </c>
       <c r="D172" t="n">
-        <v>7251965131.798842</v>
+        <v>7152077139.22119</v>
       </c>
       <c r="E172" t="n">
-        <v>6.3327606173858</v>
+        <v>6.488997027536911</v>
+      </c>
+      <c r="F172" t="n">
+        <v>-1.377392069077354</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44960</v>
+        <v>44961</v>
       </c>
       <c r="B173" t="n">
-        <v>98.97460830274356</v>
+        <v>99.91990217255157</v>
       </c>
       <c r="C173" t="n">
-        <v>764986568.2063903</v>
+        <v>646115539.6388626</v>
       </c>
       <c r="D173" t="n">
-        <v>7152077139.22119</v>
+        <v>7226662576.165048</v>
       </c>
       <c r="E173" t="n">
-        <v>6.488997027536911</v>
+        <v>6.599045834332737</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1.042850006955875</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44961</v>
+        <v>44962</v>
       </c>
       <c r="B174" t="n">
-        <v>99.91990217255157</v>
+        <v>98.51077897592805</v>
       </c>
       <c r="C174" t="n">
-        <v>646115539.6388626</v>
+        <v>442479794.2093261</v>
       </c>
       <c r="D174" t="n">
-        <v>7226662576.165048</v>
+        <v>7129017054.26823</v>
       </c>
       <c r="E174" t="n">
-        <v>6.599045834332737</v>
+        <v>6.427183142673019</v>
+      </c>
+      <c r="F174" t="n">
+        <v>-1.351184185890608</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44962</v>
+        <v>44963</v>
       </c>
       <c r="B175" t="n">
-        <v>98.51077897592805</v>
+        <v>96.43324439488201</v>
       </c>
       <c r="C175" t="n">
-        <v>442479794.2093261</v>
+        <v>515392585.6672677</v>
       </c>
       <c r="D175" t="n">
-        <v>7129017054.26823</v>
+        <v>6961623997.709831</v>
       </c>
       <c r="E175" t="n">
-        <v>6.427183142673019</v>
+        <v>6.1804782153041</v>
+      </c>
+      <c r="F175" t="n">
+        <v>-2.348052407283541</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44963</v>
+        <v>44964</v>
       </c>
       <c r="B176" t="n">
-        <v>96.43324439488201</v>
+        <v>96.1139104393673</v>
       </c>
       <c r="C176" t="n">
-        <v>515392585.6672677</v>
+        <v>473551612.6535665</v>
       </c>
       <c r="D176" t="n">
-        <v>6961623997.709831</v>
+        <v>6931704156.104501</v>
       </c>
       <c r="E176" t="n">
-        <v>6.1804782153041</v>
+        <v>5.85846809082098</v>
+      </c>
+      <c r="F176" t="n">
+        <v>-0.4297824992440469</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="B177" t="n">
-        <v>96.1139104393673</v>
+        <v>100.9879769034865</v>
       </c>
       <c r="C177" t="n">
-        <v>473551612.6535665</v>
+        <v>758187250.304209</v>
       </c>
       <c r="D177" t="n">
-        <v>6931704156.104501</v>
+        <v>7309801508.775704</v>
       </c>
       <c r="E177" t="n">
-        <v>5.85846809082098</v>
+        <v>5.781074515720806</v>
+      </c>
+      <c r="F177" t="n">
+        <v>5.454608912271985</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44965</v>
+        <v>44966</v>
       </c>
       <c r="B178" t="n">
-        <v>100.9879769034865</v>
+        <v>99.23687099568515</v>
       </c>
       <c r="C178" t="n">
-        <v>758187250.304209</v>
+        <v>648409920.9821538</v>
       </c>
       <c r="D178" t="n">
-        <v>7309801508.775704</v>
+        <v>7170479471.335073</v>
       </c>
       <c r="E178" t="n">
-        <v>5.781074515720806</v>
+        <v>5.782518934619584</v>
+      </c>
+      <c r="F178" t="n">
+        <v>-1.905961978220205</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="B179" t="n">
-        <v>99.23687099568515</v>
+        <v>92.11777021748064</v>
       </c>
       <c r="C179" t="n">
-        <v>648409920.9821538</v>
+        <v>941546012.8703182</v>
       </c>
       <c r="D179" t="n">
-        <v>7170479471.335073</v>
+        <v>6651133027.622342</v>
       </c>
       <c r="E179" t="n">
-        <v>5.782518934619584</v>
+        <v>5.471146468518297</v>
+      </c>
+      <c r="F179" t="n">
+        <v>-7.242841232429232</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44967</v>
+        <v>44968</v>
       </c>
       <c r="B180" t="n">
-        <v>92.11777021748064</v>
+        <v>93.46371006314655</v>
       </c>
       <c r="C180" t="n">
-        <v>941546012.8703182</v>
+        <v>700774345.3463019</v>
       </c>
       <c r="D180" t="n">
-        <v>6651133027.622342</v>
+        <v>6752941917.309615</v>
       </c>
       <c r="E180" t="n">
-        <v>5.471146468518297</v>
+        <v>5.333894212797648</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1.530699946376912</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44968</v>
+        <v>44969</v>
       </c>
       <c r="B181" t="n">
-        <v>93.46371006314655</v>
+        <v>94.51357413888664</v>
       </c>
       <c r="C181" t="n">
-        <v>700774345.3463019</v>
+        <v>440384874.8847424</v>
       </c>
       <c r="D181" t="n">
-        <v>6752941917.309615</v>
+        <v>6830493379.367064</v>
       </c>
       <c r="E181" t="n">
-        <v>5.333894212797648</v>
+        <v>5.257183000794368</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1.148410026431068</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44969</v>
+        <v>44970</v>
       </c>
       <c r="B182" t="n">
-        <v>94.51357413888664</v>
+        <v>92.31567328380906</v>
       </c>
       <c r="C182" t="n">
-        <v>440384874.8847424</v>
+        <v>397390627.8483459</v>
       </c>
       <c r="D182" t="n">
-        <v>6830493379.367064</v>
+        <v>6672220826.964396</v>
       </c>
       <c r="E182" t="n">
-        <v>5.257183000794368</v>
+        <v>5.161334072111336</v>
+      </c>
+      <c r="F182" t="n">
+        <v>-2.317146706865481</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44970</v>
+        <v>44971</v>
       </c>
       <c r="B183" t="n">
-        <v>92.31567328380906</v>
+        <v>91.21046775415012</v>
       </c>
       <c r="C183" t="n">
-        <v>397390627.8483459</v>
+        <v>756946798.3938984</v>
       </c>
       <c r="D183" t="n">
-        <v>6672220826.964396</v>
+        <v>6587497173.638733</v>
       </c>
       <c r="E183" t="n">
-        <v>5.161334072111336</v>
+        <v>5.098233705736941</v>
+      </c>
+      <c r="F183" t="n">
+        <v>-1.269796901554421</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="B184" t="n">
-        <v>91.21046775415012</v>
+        <v>95.64563040377853</v>
       </c>
       <c r="C184" t="n">
-        <v>756946798.3938984</v>
+        <v>660935177.8127768</v>
       </c>
       <c r="D184" t="n">
-        <v>6587497173.638733</v>
+        <v>6910404875.000352</v>
       </c>
       <c r="E184" t="n">
-        <v>5.098233705736941</v>
+        <v>5.055772822482745</v>
+      </c>
+      <c r="F184" t="n">
+        <v>4.901826791726038</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="B185" t="n">
-        <v>95.64563040377853</v>
+        <v>102.8322362658293</v>
       </c>
       <c r="C185" t="n">
-        <v>660935177.8127768</v>
+        <v>818639921.7844034</v>
       </c>
       <c r="D185" t="n">
-        <v>6910404875.000352</v>
+        <v>7422396329.232447</v>
       </c>
       <c r="E185" t="n">
-        <v>5.055772822482745</v>
+        <v>5.247743488963611</v>
+      </c>
+      <c r="F185" t="n">
+        <v>7.408993590003932</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44973</v>
+        <v>44974</v>
       </c>
       <c r="B186" t="n">
-        <v>102.8322362658293</v>
+        <v>99.2600697749166</v>
       </c>
       <c r="C186" t="n">
-        <v>818639921.7844034</v>
+        <v>814664759.3323121</v>
       </c>
       <c r="D186" t="n">
-        <v>7422396329.232447</v>
+        <v>7173481331.058722</v>
       </c>
       <c r="E186" t="n">
-        <v>5.247743488963611</v>
+        <v>5.257153112383749</v>
+      </c>
+      <c r="F186" t="n">
+        <v>-3.353566518583706</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44974</v>
+        <v>44975</v>
       </c>
       <c r="B187" t="n">
-        <v>99.2600697749166</v>
+        <v>100.4115112931485</v>
       </c>
       <c r="C187" t="n">
-        <v>814664759.3323121</v>
+        <v>805649906.7449956</v>
       </c>
       <c r="D187" t="n">
-        <v>7173481331.058722</v>
+        <v>7261915035.602173</v>
       </c>
       <c r="E187" t="n">
-        <v>5.257153112383749</v>
+        <v>5.025987562536138</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1.232786431889954</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44975</v>
+        <v>44976</v>
       </c>
       <c r="B188" t="n">
-        <v>100.4115112931485</v>
+        <v>99.6945112094221</v>
       </c>
       <c r="C188" t="n">
-        <v>805649906.7449956</v>
+        <v>661923877.8308074</v>
       </c>
       <c r="D188" t="n">
-        <v>7261915035.602173</v>
+        <v>7208394509.251699</v>
       </c>
       <c r="E188" t="n">
-        <v>5.025987562536138</v>
+        <v>4.784176890454356</v>
+      </c>
+      <c r="F188" t="n">
+        <v>-0.737002926749819</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44976</v>
+        <v>44977</v>
       </c>
       <c r="B189" t="n">
-        <v>99.6945112094221</v>
+        <v>97.45735174181027</v>
       </c>
       <c r="C189" t="n">
-        <v>661923877.8308074</v>
+        <v>589805330.0159425</v>
       </c>
       <c r="D189" t="n">
-        <v>7208394509.251699</v>
+        <v>7067878160.706563</v>
       </c>
       <c r="E189" t="n">
-        <v>4.784176890454356</v>
+        <v>4.759863455119529</v>
+      </c>
+      <c r="F189" t="n">
+        <v>-1.949343204853582</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44977</v>
+        <v>44978</v>
       </c>
       <c r="B190" t="n">
-        <v>97.45735174181027</v>
+        <v>95.91104690828334</v>
       </c>
       <c r="C190" t="n">
-        <v>589805330.0159425</v>
+        <v>906826217.3910319</v>
       </c>
       <c r="D190" t="n">
-        <v>7067878160.706563</v>
+        <v>6929598953.612201</v>
       </c>
       <c r="E190" t="n">
-        <v>4.759863455119529</v>
+        <v>4.594512988704785</v>
+      </c>
+      <c r="F190" t="n">
+        <v>-1.95644582362946</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="B191" t="n">
-        <v>95.91104690828334</v>
+        <v>93.69490828042279</v>
       </c>
       <c r="C191" t="n">
-        <v>906826217.3910319</v>
+        <v>780720670.1524998</v>
       </c>
       <c r="D191" t="n">
-        <v>6929598953.612201</v>
+        <v>6764816732.623788</v>
       </c>
       <c r="E191" t="n">
-        <v>4.594512988704785</v>
+        <v>4.394132610450173</v>
+      </c>
+      <c r="F191" t="n">
+        <v>-2.377947440991757</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44979</v>
+        <v>44980</v>
       </c>
       <c r="B192" t="n">
-        <v>93.69490828042279</v>
+        <v>95.05692004283769</v>
       </c>
       <c r="C192" t="n">
-        <v>780720670.1524998</v>
+        <v>757616962.9849399</v>
       </c>
       <c r="D192" t="n">
-        <v>6764816732.623788</v>
+        <v>6876243711.456723</v>
       </c>
       <c r="E192" t="n">
-        <v>4.394132610450173</v>
+        <v>4.295020244225674</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1.647154435028098</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44980</v>
+        <v>44981</v>
       </c>
       <c r="B193" t="n">
-        <v>95.05692004283769</v>
+        <v>94.7636552916828</v>
       </c>
       <c r="C193" t="n">
-        <v>757616962.9849399</v>
+        <v>533091830.1124328</v>
       </c>
       <c r="D193" t="n">
-        <v>6876243711.456723</v>
+        <v>6840713416.287427</v>
       </c>
       <c r="E193" t="n">
-        <v>4.295020244225674</v>
+        <v>4.01742623594892</v>
+      </c>
+      <c r="F193" t="n">
+        <v>-0.5167108185839653</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44981</v>
+        <v>44982</v>
       </c>
       <c r="B194" t="n">
-        <v>94.7636552916828</v>
+        <v>91.52889246182515</v>
       </c>
       <c r="C194" t="n">
-        <v>533091830.1124328</v>
+        <v>502215123.4852322</v>
       </c>
       <c r="D194" t="n">
-        <v>6840713416.287427</v>
+        <v>6625582895.875987</v>
       </c>
       <c r="E194" t="n">
-        <v>4.01742623594892</v>
+        <v>3.935011446949381</v>
+      </c>
+      <c r="F194" t="n">
+        <v>-3.144855036599314</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44982</v>
+        <v>44983</v>
       </c>
       <c r="B195" t="n">
-        <v>91.52889246182515</v>
+        <v>93.16976646609973</v>
       </c>
       <c r="C195" t="n">
-        <v>502215123.4852322</v>
+        <v>436380370.7718217</v>
       </c>
       <c r="D195" t="n">
-        <v>6625582895.875987</v>
+        <v>6747966213.675222</v>
       </c>
       <c r="E195" t="n">
-        <v>3.935011446949381</v>
+        <v>3.662239612342202</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1.847132844348098</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44983</v>
+        <v>44984</v>
       </c>
       <c r="B196" t="n">
-        <v>93.16976646609973</v>
+        <v>95.17205213506092</v>
       </c>
       <c r="C196" t="n">
-        <v>436380370.7718217</v>
+        <v>401183564.0874107</v>
       </c>
       <c r="D196" t="n">
-        <v>6747966213.675222</v>
+        <v>6890752614.695298</v>
       </c>
       <c r="E196" t="n">
-        <v>3.662239612342202</v>
+        <v>3.425670511881475</v>
+      </c>
+      <c r="F196" t="n">
+        <v>2.115991641017834</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B197" t="n">
-        <v>95.17205213506092</v>
+        <v>94.03570721690785</v>
       </c>
       <c r="C197" t="n">
-        <v>401183564.0874107</v>
+        <v>438749637.9849197</v>
       </c>
       <c r="D197" t="n">
-        <v>6890752614.695298</v>
+        <v>6809480415.707405</v>
       </c>
       <c r="E197" t="n">
-        <v>3.425670511881475</v>
+        <v>3.234916705626415</v>
+      </c>
+      <c r="F197" t="n">
+        <v>-1.179438640919583</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="B198" t="n">
-        <v>94.03570721690785</v>
+        <v>93.73046914547756</v>
       </c>
       <c r="C198" t="n">
-        <v>438749637.9849197</v>
+        <v>426852107.5478518</v>
       </c>
       <c r="D198" t="n">
-        <v>6809480415.707405</v>
+        <v>6771528857.874855</v>
       </c>
       <c r="E198" t="n">
-        <v>3.234916705626415</v>
+        <v>3.258926959087373</v>
+      </c>
+      <c r="F198" t="n">
+        <v>-0.5573341211909111</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B199" t="n">
-        <v>93.73046914547756</v>
+        <v>97.77627372721921</v>
       </c>
       <c r="C199" t="n">
-        <v>426852107.5478518</v>
+        <v>558455261.57109</v>
       </c>
       <c r="D199" t="n">
-        <v>6771528857.874855</v>
+        <v>7080227569.888726</v>
       </c>
       <c r="E199" t="n">
-        <v>3.258926959087373</v>
+        <v>3.151226481415445</v>
+      </c>
+      <c r="F199" t="n">
+        <v>4.558774222085371</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B200" t="n">
-        <v>97.77627372721921</v>
+        <v>95.277902693291</v>
       </c>
       <c r="C200" t="n">
-        <v>558455261.57109</v>
+        <v>497328067.8448676</v>
       </c>
       <c r="D200" t="n">
-        <v>7080227569.888726</v>
+        <v>6897806522.383258</v>
       </c>
       <c r="E200" t="n">
-        <v>3.151226481415445</v>
+        <v>3.137142095103043</v>
+      </c>
+      <c r="F200" t="n">
+        <v>-2.576485652541471</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44988</v>
+        <v>44989</v>
       </c>
       <c r="B201" t="n">
-        <v>95.277902693291</v>
+        <v>90.57634954152962</v>
       </c>
       <c r="C201" t="n">
-        <v>497328067.8448676</v>
+        <v>700671966.7408128</v>
       </c>
       <c r="D201" t="n">
-        <v>6897806522.383258</v>
+        <v>6556118053.165364</v>
       </c>
       <c r="E201" t="n">
-        <v>3.137142095103043</v>
+        <v>3.202895628766014</v>
+      </c>
+      <c r="F201" t="n">
+        <v>-4.953581520576444</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44989</v>
+        <v>44990</v>
       </c>
       <c r="B202" t="n">
-        <v>90.57634954152962</v>
+        <v>89.29200780433639</v>
       </c>
       <c r="C202" t="n">
-        <v>700671966.7408128</v>
+        <v>356142562.6462949</v>
       </c>
       <c r="D202" t="n">
-        <v>6556118053.165364</v>
+        <v>6460522635.509425</v>
       </c>
       <c r="E202" t="n">
-        <v>3.202895628766014</v>
+        <v>3.375307414273529</v>
+      </c>
+      <c r="F202" t="n">
+        <v>-1.458110071855467</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44990</v>
+        <v>44991</v>
       </c>
       <c r="B203" t="n">
-        <v>89.29200780433639</v>
+        <v>89.98197629869014</v>
       </c>
       <c r="C203" t="n">
-        <v>356142562.6462949</v>
+        <v>339580674.0939494</v>
       </c>
       <c r="D203" t="n">
-        <v>6460522635.509425</v>
+        <v>6508076597.221751</v>
       </c>
       <c r="E203" t="n">
-        <v>3.375307414273529</v>
+        <v>3.431072778521408</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.7360698877665328</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="B204" t="n">
-        <v>89.98197629869014</v>
+        <v>87.41085201395951</v>
       </c>
       <c r="C204" t="n">
-        <v>339580674.0939494</v>
+        <v>509655232.4293733</v>
       </c>
       <c r="D204" t="n">
-        <v>6508076597.221751</v>
+        <v>6326379895.454934</v>
       </c>
       <c r="E204" t="n">
-        <v>3.431072778521408</v>
+        <v>3.66759497597391</v>
+      </c>
+      <c r="F204" t="n">
+        <v>-2.791864832143831</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="B205" t="n">
-        <v>87.41085201395951</v>
+        <v>86.36179736748228</v>
       </c>
       <c r="C205" t="n">
-        <v>509655232.4293733</v>
+        <v>554658678.6936619</v>
       </c>
       <c r="D205" t="n">
-        <v>6326379895.454934</v>
+        <v>6240122255.010752</v>
       </c>
       <c r="E205" t="n">
-        <v>3.66759497597391</v>
+        <v>3.976861235320107</v>
+      </c>
+      <c r="F205" t="n">
+        <v>-1.363459701592573</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="B206" t="n">
-        <v>86.36179736748228</v>
+        <v>82.83407972046909</v>
       </c>
       <c r="C206" t="n">
-        <v>554658678.6936619</v>
+        <v>517823112.5581758</v>
       </c>
       <c r="D206" t="n">
-        <v>6240122255.010752</v>
+        <v>6016699008.503209</v>
       </c>
       <c r="E206" t="n">
-        <v>3.976861235320107</v>
+        <v>4.509762505068183</v>
+      </c>
+      <c r="F206" t="n">
+        <v>-3.580430596982875</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="B207" t="n">
-        <v>82.83407972046909</v>
+        <v>76.70611602901657</v>
       </c>
       <c r="C207" t="n">
-        <v>517823112.5581758</v>
+        <v>728020192.6077805</v>
       </c>
       <c r="D207" t="n">
-        <v>6016699008.503209</v>
+        <v>5546208841.346763</v>
       </c>
       <c r="E207" t="n">
-        <v>4.509762505068183</v>
+        <v>5.348723638663583</v>
+      </c>
+      <c r="F207" t="n">
+        <v>-7.819739137548975</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44995</v>
+        <v>44996</v>
       </c>
       <c r="B208" t="n">
-        <v>76.70611602901657</v>
+        <v>71.76192546418098</v>
       </c>
       <c r="C208" t="n">
-        <v>728020192.6077805</v>
+        <v>1111620949.471205</v>
       </c>
       <c r="D208" t="n">
-        <v>5546208841.346763</v>
+        <v>5206902438.768539</v>
       </c>
       <c r="E208" t="n">
-        <v>5.348723638663583</v>
+        <v>6.532691851117129</v>
+      </c>
+      <c r="F208" t="n">
+        <v>-6.117807898770556</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44996</v>
+        <v>44997</v>
       </c>
       <c r="B209" t="n">
-        <v>71.76192546418098</v>
+        <v>69.29409126312531</v>
       </c>
       <c r="C209" t="n">
-        <v>1111620949.471205</v>
+        <v>1157152710.665337</v>
       </c>
       <c r="D209" t="n">
-        <v>5206902438.768539</v>
+        <v>4997759498.555117</v>
       </c>
       <c r="E209" t="n">
-        <v>6.532691851117129</v>
+        <v>7.783792599055548</v>
+      </c>
+      <c r="F209" t="n">
+        <v>-4.01664795284481</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44997</v>
+        <v>44998</v>
       </c>
       <c r="B210" t="n">
-        <v>69.29409126312531</v>
+        <v>76.09166315757737</v>
       </c>
       <c r="C210" t="n">
-        <v>1157152710.665337</v>
+        <v>861329606.3892223</v>
       </c>
       <c r="D210" t="n">
-        <v>4997759498.555117</v>
+        <v>5498982353.009049</v>
       </c>
       <c r="E210" t="n">
-        <v>7.783792599055548</v>
+        <v>8.278866324733956</v>
+      </c>
+      <c r="F210" t="n">
+        <v>10.02895106494899</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="B211" t="n">
-        <v>76.09166315757737</v>
+        <v>81.69940683741116</v>
       </c>
       <c r="C211" t="n">
-        <v>861329606.3892223</v>
+        <v>1508823435.612128</v>
       </c>
       <c r="D211" t="n">
-        <v>5498982353.009049</v>
+        <v>5925182832.084372</v>
       </c>
       <c r="E211" t="n">
-        <v>8.278866324733956</v>
+        <v>8.427278743844866</v>
+      </c>
+      <c r="F211" t="n">
+        <v>7.750533675419136</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="B212" t="n">
-        <v>81.69940683741116</v>
+        <v>84.33640495998216</v>
       </c>
       <c r="C212" t="n">
-        <v>1508823435.612128</v>
+        <v>965041163.0613216</v>
       </c>
       <c r="D212" t="n">
-        <v>5925182832.084372</v>
+        <v>6134642212.782551</v>
       </c>
       <c r="E212" t="n">
-        <v>8.427278743844866</v>
+        <v>8.500082479563796</v>
+      </c>
+      <c r="F212" t="n">
+        <v>3.535070336799984</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="B213" t="n">
-        <v>84.33640495998216</v>
+        <v>76.60566419826178</v>
       </c>
       <c r="C213" t="n">
-        <v>965041163.0613216</v>
+        <v>891315313.1610636</v>
       </c>
       <c r="D213" t="n">
-        <v>6134642212.782551</v>
+        <v>5548847719.175217</v>
       </c>
       <c r="E213" t="n">
-        <v>8.500082479563796</v>
+        <v>8.864415151378976</v>
+      </c>
+      <c r="F213" t="n">
+        <v>-9.54895938978696</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="B214" t="n">
-        <v>76.60566419826178</v>
+        <v>79.42783279747761</v>
       </c>
       <c r="C214" t="n">
-        <v>891315313.1610636</v>
+        <v>607699772.1139194</v>
       </c>
       <c r="D214" t="n">
-        <v>5548847719.175217</v>
+        <v>5767644685.885365</v>
       </c>
       <c r="E214" t="n">
-        <v>8.864415151378976</v>
+        <v>8.998327764929972</v>
+      </c>
+      <c r="F214" t="n">
+        <v>3.943106348982117</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45002</v>
+        <v>45003</v>
       </c>
       <c r="B215" t="n">
-        <v>79.42783279747761</v>
+        <v>85.60417146063327</v>
       </c>
       <c r="C215" t="n">
-        <v>607699772.1139194</v>
+        <v>696702247.2474911</v>
       </c>
       <c r="D215" t="n">
-        <v>5767644685.885365</v>
+        <v>6184452955.777691</v>
       </c>
       <c r="E215" t="n">
-        <v>8.998327764929972</v>
+        <v>8.655062722259991</v>
+      </c>
+      <c r="F215" t="n">
+        <v>7.226663440491454</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45003</v>
+        <v>45004</v>
       </c>
       <c r="B216" t="n">
-        <v>85.60417146063327</v>
+        <v>83.34192655172772</v>
       </c>
       <c r="C216" t="n">
-        <v>696702247.2474911</v>
+        <v>710145092.3600591</v>
       </c>
       <c r="D216" t="n">
-        <v>6184452955.777691</v>
+        <v>6024350467.809231</v>
       </c>
       <c r="E216" t="n">
-        <v>8.655062722259991</v>
+        <v>8.479806629163221</v>
+      </c>
+      <c r="F216" t="n">
+        <v>-2.588789810728331</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45004</v>
+        <v>45005</v>
       </c>
       <c r="B217" t="n">
-        <v>83.34192655172772</v>
+        <v>85.01609331114764</v>
       </c>
       <c r="C217" t="n">
-        <v>710145092.3600591</v>
+        <v>551913905.2870497</v>
       </c>
       <c r="D217" t="n">
-        <v>6024350467.809231</v>
+        <v>6189066427.965131</v>
       </c>
       <c r="E217" t="n">
-        <v>8.479806629163221</v>
+        <v>8.182210783492181</v>
+      </c>
+      <c r="F217" t="n">
+        <v>2.73416961772146</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45005</v>
+        <v>45006</v>
       </c>
       <c r="B218" t="n">
-        <v>85.01609331114764</v>
+        <v>78.64575834452634</v>
       </c>
       <c r="C218" t="n">
-        <v>551913905.2870497</v>
+        <v>669354486.3817476</v>
       </c>
       <c r="D218" t="n">
-        <v>6189066427.965131</v>
+        <v>5716160613.366946</v>
       </c>
       <c r="E218" t="n">
-        <v>8.182210783492181</v>
+        <v>8.026929495960857</v>
+      </c>
+      <c r="F218" t="n">
+        <v>-7.640987863070469</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="B219" t="n">
-        <v>78.64575834452634</v>
+        <v>82.97827501987076</v>
       </c>
       <c r="C219" t="n">
-        <v>669354486.3817476</v>
+        <v>578120962.0363922</v>
       </c>
       <c r="D219" t="n">
-        <v>5716160613.366946</v>
+        <v>6014515508.07291</v>
       </c>
       <c r="E219" t="n">
-        <v>8.026929495960857</v>
+        <v>7.814267044293143</v>
+      </c>
+      <c r="F219" t="n">
+        <v>5.219498101720177</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45007</v>
+        <v>45008</v>
       </c>
       <c r="B220" t="n">
-        <v>82.97827501987076</v>
+        <v>87.8623270363498</v>
       </c>
       <c r="C220" t="n">
-        <v>578120962.0363922</v>
+        <v>1073781810.645291</v>
       </c>
       <c r="D220" t="n">
-        <v>6014515508.07291</v>
+        <v>6369726692.521464</v>
       </c>
       <c r="E220" t="n">
-        <v>7.814267044293143</v>
+        <v>7.619403221204806</v>
+      </c>
+      <c r="F220" t="n">
+        <v>5.905898554451738</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="B221" t="n">
-        <v>87.8623270363498</v>
+        <v>94.12305908106812</v>
       </c>
       <c r="C221" t="n">
-        <v>1073781810.645291</v>
+        <v>1066675261.543273</v>
       </c>
       <c r="D221" t="n">
-        <v>6369726692.521464</v>
+        <v>6806935522.396294</v>
       </c>
       <c r="E221" t="n">
-        <v>7.619403221204806</v>
+        <v>7.634052077254879</v>
+      </c>
+      <c r="F221" t="n">
+        <v>6.863855405101527</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45009</v>
+        <v>45010</v>
       </c>
       <c r="B222" t="n">
-        <v>94.12305908106812</v>
+        <v>93.57885736564651</v>
       </c>
       <c r="C222" t="n">
-        <v>1066675261.543273</v>
+        <v>1083559164.83427</v>
       </c>
       <c r="D222" t="n">
-        <v>6806935522.396294</v>
+        <v>6801777109.118528</v>
       </c>
       <c r="E222" t="n">
-        <v>7.634052077254879</v>
+        <v>7.58049511062862</v>
+      </c>
+      <c r="F222" t="n">
+        <v>-0.0757817267519667</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45010</v>
+        <v>45011</v>
       </c>
       <c r="B223" t="n">
-        <v>93.57885736564651</v>
+        <v>92.04029877540782</v>
       </c>
       <c r="C223" t="n">
-        <v>1083559164.83427</v>
+        <v>675426904.4446232</v>
       </c>
       <c r="D223" t="n">
-        <v>6801777109.118528</v>
+        <v>6679568261.288129</v>
       </c>
       <c r="E223" t="n">
-        <v>7.58049511062862</v>
+        <v>7.491422601827716</v>
+      </c>
+      <c r="F223" t="n">
+        <v>-1.796719384799672</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45011</v>
+        <v>45012</v>
       </c>
       <c r="B224" t="n">
-        <v>92.04029877540782</v>
+        <v>93.58750914289361</v>
       </c>
       <c r="C224" t="n">
-        <v>675426904.4446232</v>
+        <v>658758732.2955722</v>
       </c>
       <c r="D224" t="n">
-        <v>6679568261.288129</v>
+        <v>6807326099.344553</v>
       </c>
       <c r="E224" t="n">
-        <v>7.491422601827716</v>
+        <v>7.551026286700442</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1.912666104437521</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45012</v>
+        <v>45013</v>
       </c>
       <c r="B225" t="n">
-        <v>93.58750914289361</v>
+        <v>89.42862556043129</v>
       </c>
       <c r="C225" t="n">
-        <v>658758732.2955722</v>
+        <v>622403495.0094712</v>
       </c>
       <c r="D225" t="n">
-        <v>6807326099.344553</v>
+        <v>6479374450.186049</v>
       </c>
       <c r="E225" t="n">
-        <v>7.551026286700442</v>
+        <v>7.463660387984028</v>
+      </c>
+      <c r="F225" t="n">
+        <v>-4.817628013884634</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="B226" t="n">
-        <v>89.42862556043129</v>
+        <v>89.22972699290226</v>
       </c>
       <c r="C226" t="n">
-        <v>622403495.0094712</v>
+        <v>635064210.5101713</v>
       </c>
       <c r="D226" t="n">
-        <v>6479374450.186049</v>
+        <v>6476470385.979676</v>
       </c>
       <c r="E226" t="n">
-        <v>7.463660387984028</v>
+        <v>7.292940142985352</v>
+      </c>
+      <c r="F226" t="n">
+        <v>-0.04482013238623628</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45014</v>
+        <v>45015</v>
       </c>
       <c r="B227" t="n">
-        <v>89.22972699290226</v>
+        <v>91.45979931591303</v>
       </c>
       <c r="C227" t="n">
-        <v>635064210.5101713</v>
+        <v>591449142.1362896</v>
       </c>
       <c r="D227" t="n">
-        <v>6476470385.979676</v>
+        <v>6635043826.90929</v>
       </c>
       <c r="E227" t="n">
-        <v>7.292940142985352</v>
+        <v>7.209198876351516</v>
+      </c>
+      <c r="F227" t="n">
+        <v>2.448454659391253</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="B228" t="n">
-        <v>91.45979931591303</v>
+        <v>89.11524107886802</v>
       </c>
       <c r="C228" t="n">
-        <v>591449142.1362896</v>
+        <v>645592544.9720194</v>
       </c>
       <c r="D228" t="n">
-        <v>6635043826.90929</v>
+        <v>6461977207.041185</v>
       </c>
       <c r="E228" t="n">
-        <v>7.209198876351516</v>
+        <v>7.083800321242556</v>
+      </c>
+      <c r="F228" t="n">
+        <v>-2.608371917095864</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45016</v>
+        <v>45017</v>
       </c>
       <c r="B229" t="n">
-        <v>89.11524107886802</v>
+        <v>89.71019716218944</v>
       </c>
       <c r="C229" t="n">
-        <v>645592544.9720194</v>
+        <v>454574377.289526</v>
       </c>
       <c r="D229" t="n">
-        <v>6461977207.041185</v>
+        <v>6521042696.986031</v>
       </c>
       <c r="E229" t="n">
-        <v>7.083800321242556</v>
+        <v>6.755694904076045</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.9140467081883985</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45017</v>
+        <v>45018</v>
       </c>
       <c r="B230" t="n">
-        <v>89.71019716218944</v>
+        <v>92.68151186487864</v>
       </c>
       <c r="C230" t="n">
-        <v>454574377.289526</v>
+        <v>634242629.9278827</v>
       </c>
       <c r="D230" t="n">
-        <v>6521042696.986031</v>
+        <v>6733719657.632174</v>
       </c>
       <c r="E230" t="n">
-        <v>6.755694904076045</v>
+        <v>6.641054646334663</v>
+      </c>
+      <c r="F230" t="n">
+        <v>3.261395002741541</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45018</v>
+        <v>45019</v>
       </c>
       <c r="B231" t="n">
-        <v>92.68151186487864</v>
+        <v>93.12113967762249</v>
       </c>
       <c r="C231" t="n">
-        <v>634242629.9278827</v>
+        <v>582729766.7602398</v>
       </c>
       <c r="D231" t="n">
-        <v>6733719657.632174</v>
+        <v>6761846007.803535</v>
       </c>
       <c r="E231" t="n">
-        <v>6.641054646334663</v>
+        <v>6.72570086215263</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0.4176941066960094</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45019</v>
+        <v>45020</v>
       </c>
       <c r="B232" t="n">
-        <v>93.12113967762249</v>
+        <v>93.02908198570546</v>
       </c>
       <c r="C232" t="n">
-        <v>582729766.7602398</v>
+        <v>763903957.6090839</v>
       </c>
       <c r="D232" t="n">
-        <v>6761846007.803535</v>
+        <v>6772692904.927617</v>
       </c>
       <c r="E232" t="n">
-        <v>6.72570086215263</v>
+        <v>6.833172672390002</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0.1604132527059043</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45020</v>
+        <v>45021</v>
       </c>
       <c r="B233" t="n">
-        <v>93.02908198570546</v>
+        <v>92.53143950331911</v>
       </c>
       <c r="C233" t="n">
-        <v>763903957.6090839</v>
+        <v>487215348.3926864</v>
       </c>
       <c r="D233" t="n">
-        <v>6772692904.927617</v>
+        <v>6717669062.294881</v>
       </c>
       <c r="E233" t="n">
-        <v>6.833172672390002</v>
+        <v>6.905421507732361</v>
+      </c>
+      <c r="F233" t="n">
+        <v>-0.8124366984468279</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="B234" t="n">
-        <v>92.53143950331911</v>
+        <v>92.6865177570662</v>
       </c>
       <c r="C234" t="n">
-        <v>487215348.3926864</v>
+        <v>580032753.9030148</v>
       </c>
       <c r="D234" t="n">
-        <v>6717669062.294881</v>
+        <v>6734473838.801577</v>
       </c>
       <c r="E234" t="n">
-        <v>6.905421507732361</v>
+        <v>7.017967986260955</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.2501578501539869</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45022</v>
+        <v>45023</v>
       </c>
       <c r="B235" t="n">
-        <v>92.6865177570662</v>
+        <v>90.9201431686549</v>
       </c>
       <c r="C235" t="n">
-        <v>580032753.9030148</v>
+        <v>422657972.0262233</v>
       </c>
       <c r="D235" t="n">
-        <v>6734473838.801577</v>
+        <v>6607090347.092246</v>
       </c>
       <c r="E235" t="n">
-        <v>7.017967986260955</v>
+        <v>7.078966834850387</v>
+      </c>
+      <c r="F235" t="n">
+        <v>-1.891513646922105</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45023</v>
+        <v>45024</v>
       </c>
       <c r="B236" t="n">
-        <v>90.9201431686549</v>
+        <v>90.60387946141081</v>
       </c>
       <c r="C236" t="n">
-        <v>422657972.0262233</v>
+        <v>368224075.3753257</v>
       </c>
       <c r="D236" t="n">
-        <v>6607090347.092246</v>
+        <v>6582863767.82106</v>
       </c>
       <c r="E236" t="n">
-        <v>7.078966834850387</v>
+        <v>7.101935557097352</v>
+      </c>
+      <c r="F236" t="n">
+        <v>-0.36667546527267</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45024</v>
+        <v>45025</v>
       </c>
       <c r="B237" t="n">
-        <v>90.60387946141081</v>
+        <v>90.00225888872436</v>
       </c>
       <c r="C237" t="n">
-        <v>368224075.3753257</v>
+        <v>355830883.0165979</v>
       </c>
       <c r="D237" t="n">
-        <v>6582863767.82106</v>
+        <v>6548626468.010949</v>
       </c>
       <c r="E237" t="n">
-        <v>7.101935557097352</v>
+        <v>6.898368981733059</v>
+      </c>
+      <c r="F237" t="n">
+        <v>-0.5200973469551839</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45025</v>
+        <v>45026</v>
       </c>
       <c r="B238" t="n">
-        <v>90.00225888872436</v>
+        <v>90.67769157791327</v>
       </c>
       <c r="C238" t="n">
-        <v>355830883.0165979</v>
+        <v>345416673.1860704</v>
       </c>
       <c r="D238" t="n">
-        <v>6548626468.010949</v>
+        <v>6594419486.913172</v>
       </c>
       <c r="E238" t="n">
-        <v>6.898368981733059</v>
+        <v>6.328365963299251</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.6992766975779441</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="B239" t="n">
-        <v>90.67769157791327</v>
+        <v>93.83375657223945</v>
       </c>
       <c r="C239" t="n">
-        <v>345416673.1860704</v>
+        <v>540016856.2396216</v>
       </c>
       <c r="D239" t="n">
-        <v>6594419486.913172</v>
+        <v>6827359570.214165</v>
       </c>
       <c r="E239" t="n">
-        <v>6.328365963299251</v>
+        <v>5.442799321672922</v>
+      </c>
+      <c r="F239" t="n">
+        <v>3.532381944510354</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="B240" t="n">
-        <v>93.83375657223945</v>
+        <v>94.23711114152863</v>
       </c>
       <c r="C240" t="n">
-        <v>540016856.2396216</v>
+        <v>638006797.3071901</v>
       </c>
       <c r="D240" t="n">
-        <v>6827359570.214165</v>
+        <v>6845490745.410568</v>
       </c>
       <c r="E240" t="n">
-        <v>5.442799321672922</v>
+        <v>5.05286838115816</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0.2655664317945838</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45028</v>
+        <v>45029</v>
       </c>
       <c r="B241" t="n">
-        <v>94.23711114152863</v>
+        <v>92.16385143395843</v>
       </c>
       <c r="C241" t="n">
-        <v>638006797.3071901</v>
+        <v>590938072.2153661</v>
       </c>
       <c r="D241" t="n">
-        <v>6845490745.410568</v>
+        <v>6708437560.006492</v>
       </c>
       <c r="E241" t="n">
-        <v>5.05286838115816</v>
+        <v>4.90943618585163</v>
+      </c>
+      <c r="F241" t="n">
+        <v>-2.002094378638397</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="B242" t="n">
-        <v>92.16385143395843</v>
+        <v>94.24514926982899</v>
       </c>
       <c r="C242" t="n">
-        <v>590938072.2153661</v>
+        <v>499365713.5760819</v>
       </c>
       <c r="D242" t="n">
-        <v>6708437560.006492</v>
+        <v>6847116785.761744</v>
       </c>
       <c r="E242" t="n">
-        <v>4.90943618585163</v>
+        <v>4.912193276215678</v>
+      </c>
+      <c r="F242" t="n">
+        <v>2.067235843141968</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45030</v>
+        <v>45031</v>
       </c>
       <c r="B243" t="n">
-        <v>94.24514926982899</v>
+        <v>96.37643356891139</v>
       </c>
       <c r="C243" t="n">
-        <v>499365713.5760819</v>
+        <v>811440882.7470376</v>
       </c>
       <c r="D243" t="n">
-        <v>6847116785.761744</v>
+        <v>7008366760.796881</v>
       </c>
       <c r="E243" t="n">
-        <v>4.912193276215678</v>
+        <v>4.437541273416206</v>
+      </c>
+      <c r="F243" t="n">
+        <v>2.355005472821037</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45031</v>
+        <v>45032</v>
       </c>
       <c r="B244" t="n">
-        <v>96.37643356891139</v>
+        <v>96.84759043213947</v>
       </c>
       <c r="C244" t="n">
-        <v>811440882.7470376</v>
+        <v>411960403.1805071</v>
       </c>
       <c r="D244" t="n">
-        <v>7008366760.796881</v>
+        <v>7051092680.019049</v>
       </c>
       <c r="E244" t="n">
-        <v>4.437541273416206</v>
+        <v>4.124949570941214</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.6096415995402227</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="B245" t="n">
-        <v>96.84759043213947</v>
+        <v>100.2187229580006</v>
       </c>
       <c r="C245" t="n">
-        <v>411960403.1805071</v>
+        <v>774616025.8617989</v>
       </c>
       <c r="D245" t="n">
-        <v>7051092680.019049</v>
+        <v>7283209648.590668</v>
       </c>
       <c r="E245" t="n">
-        <v>4.124949570941214</v>
+        <v>4.363827873235634</v>
+      </c>
+      <c r="F245" t="n">
+        <v>3.291929054192955</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45033</v>
+        <v>45034</v>
       </c>
       <c r="B246" t="n">
-        <v>100.2187229580006</v>
+        <v>98.67930223882109</v>
       </c>
       <c r="C246" t="n">
-        <v>774616025.8617989</v>
+        <v>672641764.7798688</v>
       </c>
       <c r="D246" t="n">
-        <v>7283209648.590668</v>
+        <v>7166634167.244257</v>
       </c>
       <c r="E246" t="n">
-        <v>4.363827873235634</v>
+        <v>4.316530730410002</v>
+      </c>
+      <c r="F246" t="n">
+        <v>-1.60060587256291</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="B247" t="n">
-        <v>98.67930223882109</v>
+        <v>101.8197244165792</v>
       </c>
       <c r="C247" t="n">
-        <v>672641764.7798688</v>
+        <v>683306927.4022704</v>
       </c>
       <c r="D247" t="n">
-        <v>7166634167.244257</v>
+        <v>7406400941.449912</v>
       </c>
       <c r="E247" t="n">
-        <v>4.316530730410002</v>
+        <v>4.511273445411736</v>
+      </c>
+      <c r="F247" t="n">
+        <v>3.345598067521438</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="B248" t="n">
-        <v>101.8197244165792</v>
+        <v>90.13801930693442</v>
       </c>
       <c r="C248" t="n">
-        <v>683306927.4022704</v>
+        <v>931659227.5889513</v>
       </c>
       <c r="D248" t="n">
-        <v>7406400941.449912</v>
+        <v>6562601343.698442</v>
       </c>
       <c r="E248" t="n">
-        <v>4.511273445411736</v>
+        <v>3.741632916080867</v>
+      </c>
+      <c r="F248" t="n">
+        <v>-11.39284254824967</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45036</v>
+        <v>45037</v>
       </c>
       <c r="B249" t="n">
-        <v>90.13801930693442</v>
+        <v>90.23410338576373</v>
       </c>
       <c r="C249" t="n">
-        <v>931659227.5889513</v>
+        <v>751894046.1407697</v>
       </c>
       <c r="D249" t="n">
-        <v>6562601343.698442</v>
+        <v>6559647088.789412</v>
       </c>
       <c r="E249" t="n">
-        <v>3.741632916080867</v>
+        <v>3.307748780878096</v>
+      </c>
+      <c r="F249" t="n">
+        <v>-0.04501652247803634</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45037</v>
+        <v>45038</v>
       </c>
       <c r="B250" t="n">
-        <v>90.23410338576373</v>
+        <v>85.47800706918825</v>
       </c>
       <c r="C250" t="n">
-        <v>751894046.1407697</v>
+        <v>642267569.1550876</v>
       </c>
       <c r="D250" t="n">
-        <v>6559647088.789412</v>
+        <v>6219487302.05473</v>
       </c>
       <c r="E250" t="n">
-        <v>3.307748780878096</v>
+        <v>3.456749416030358</v>
+      </c>
+      <c r="F250" t="n">
+        <v>-5.18564157690774</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45038</v>
+        <v>45039</v>
       </c>
       <c r="B251" t="n">
-        <v>85.47800706918825</v>
+        <v>87.15628013678875</v>
       </c>
       <c r="C251" t="n">
-        <v>642267569.1550876</v>
+        <v>359742750.447212</v>
       </c>
       <c r="D251" t="n">
-        <v>6219487302.05473</v>
+        <v>6343229570.971656</v>
       </c>
       <c r="E251" t="n">
-        <v>3.456749416030358</v>
+        <v>3.593335200461178</v>
+      </c>
+      <c r="F251" t="n">
+        <v>1.989589541826775</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45039</v>
+        <v>45040</v>
       </c>
       <c r="B252" t="n">
-        <v>87.15628013678875</v>
+        <v>86.87942920006736</v>
       </c>
       <c r="C252" t="n">
-        <v>359742750.447212</v>
+        <v>370807139.7442833</v>
       </c>
       <c r="D252" t="n">
-        <v>6343229570.971656</v>
+        <v>6314904089.880809</v>
       </c>
       <c r="E252" t="n">
-        <v>3.593335200461178</v>
+        <v>3.731284631749172</v>
+      </c>
+      <c r="F252" t="n">
+        <v>-0.4465466805816387</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45040</v>
+        <v>45041</v>
       </c>
       <c r="B253" t="n">
-        <v>86.87942920006736</v>
+        <v>88.37490291537239</v>
       </c>
       <c r="C253" t="n">
-        <v>370807139.7442833</v>
+        <v>526411431.9025736</v>
       </c>
       <c r="D253" t="n">
-        <v>6314904089.880809</v>
+        <v>6437871832.18179</v>
       </c>
       <c r="E253" t="n">
-        <v>3.731284631749172</v>
+        <v>3.799616850510637</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1.947262231551994</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45041</v>
+        <v>45042</v>
       </c>
       <c r="B254" t="n">
-        <v>88.37490291537239</v>
+        <v>91.2326877466548</v>
       </c>
       <c r="C254" t="n">
-        <v>526411431.9025736</v>
+        <v>619853760.2725803</v>
       </c>
       <c r="D254" t="n">
-        <v>6437871832.18179</v>
+        <v>6632435525.741364</v>
       </c>
       <c r="E254" t="n">
-        <v>3.799616850510637</v>
+        <v>3.793904269037697</v>
+      </c>
+      <c r="F254" t="n">
+        <v>3.022174076019701</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="B255" t="n">
-        <v>91.2326877466548</v>
+        <v>88.10376390774525</v>
       </c>
       <c r="C255" t="n">
-        <v>619853760.2725803</v>
+        <v>784021557.5185395</v>
       </c>
       <c r="D255" t="n">
-        <v>6632435525.741364</v>
+        <v>6411631789.875322</v>
       </c>
       <c r="E255" t="n">
-        <v>3.793904269037697</v>
+        <v>3.833620115219837</v>
+      </c>
+      <c r="F255" t="n">
+        <v>-3.329150129075098</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="B256" t="n">
-        <v>88.10376390774525</v>
+        <v>89.70582033716799</v>
       </c>
       <c r="C256" t="n">
-        <v>784021557.5185395</v>
+        <v>1184528816.82757</v>
       </c>
       <c r="D256" t="n">
-        <v>6411631789.875322</v>
+        <v>6525091037.856473</v>
       </c>
       <c r="E256" t="n">
-        <v>3.833620115219837</v>
+        <v>3.822470817749884</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1.769584587816087</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45044</v>
+        <v>45045</v>
       </c>
       <c r="B257" t="n">
-        <v>89.70582033716799</v>
+        <v>89.70768558994048</v>
       </c>
       <c r="C257" t="n">
-        <v>1184528816.82757</v>
+        <v>399484803.5466571</v>
       </c>
       <c r="D257" t="n">
-        <v>6525091037.856473</v>
+        <v>6533495262.264214</v>
       </c>
       <c r="E257" t="n">
-        <v>3.822470817749884</v>
+        <v>3.845517635176419</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0.1287985770463962</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45045</v>
+        <v>45046</v>
       </c>
       <c r="B258" t="n">
-        <v>89.70768558994048</v>
+        <v>90.99682967799049</v>
       </c>
       <c r="C258" t="n">
-        <v>399484803.5466571</v>
+        <v>317673030.9236653</v>
       </c>
       <c r="D258" t="n">
-        <v>6533495262.264214</v>
+        <v>6626734446.964801</v>
       </c>
       <c r="E258" t="n">
-        <v>3.845517635176419</v>
+        <v>3.811753690053201</v>
+      </c>
+      <c r="F258" t="n">
+        <v>1.427095007462742</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>45046</v>
+        <v>45047</v>
       </c>
       <c r="B259" t="n">
-        <v>90.99682967799049</v>
+        <v>88.72357862872494</v>
       </c>
       <c r="C259" t="n">
-        <v>317673030.9236653</v>
+        <v>337656729.3947045</v>
       </c>
       <c r="D259" t="n">
-        <v>6626734446.964801</v>
+        <v>6463261911.260872</v>
       </c>
       <c r="E259" t="n">
-        <v>3.811753690053201</v>
+        <v>3.837075094070399</v>
+      </c>
+      <c r="F259" t="n">
+        <v>-2.466864139678981</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>45047</v>
+        <v>45048</v>
       </c>
       <c r="B260" t="n">
-        <v>88.72357862872494</v>
+        <v>86.7602578182525</v>
       </c>
       <c r="C260" t="n">
-        <v>337656729.3947045</v>
+        <v>468021054.8187016</v>
       </c>
       <c r="D260" t="n">
-        <v>6463261911.260872</v>
+        <v>6312960585.160848</v>
       </c>
       <c r="E260" t="n">
-        <v>3.837075094070399</v>
+        <v>3.953820180954205</v>
+      </c>
+      <c r="F260" t="n">
+        <v>-2.32547169159516</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45048</v>
+        <v>45049</v>
       </c>
       <c r="B261" t="n">
-        <v>86.7602578182525</v>
+        <v>88.31482725887099</v>
       </c>
       <c r="C261" t="n">
-        <v>468021054.8187016</v>
+        <v>395779740.7069361</v>
       </c>
       <c r="D261" t="n">
-        <v>6312960585.160848</v>
+        <v>6429515649.000101</v>
       </c>
       <c r="E261" t="n">
-        <v>3.953820180954205</v>
+        <v>3.997650173952877</v>
+      </c>
+      <c r="F261" t="n">
+        <v>1.846282140795008</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="B262" t="n">
-        <v>88.31482725887099</v>
+        <v>88.79402358423104</v>
       </c>
       <c r="C262" t="n">
-        <v>395779740.7069361</v>
+        <v>462830465.3627279</v>
       </c>
       <c r="D262" t="n">
-        <v>6429515649.000101</v>
+        <v>6464190195.266466</v>
       </c>
       <c r="E262" t="n">
-        <v>3.997650173952877</v>
+        <v>4.023400131046486</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0.5393026187245908</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45050</v>
+        <v>45051</v>
       </c>
       <c r="B263" t="n">
-        <v>88.79402358423104</v>
+        <v>88.49292176589871</v>
       </c>
       <c r="C263" t="n">
-        <v>462830465.3627279</v>
+        <v>298992289.1817839</v>
       </c>
       <c r="D263" t="n">
-        <v>6464190195.266466</v>
+        <v>6451113671.021365</v>
       </c>
       <c r="E263" t="n">
-        <v>4.023400131046486</v>
+        <v>4.056788374349471</v>
+      </c>
+      <c r="F263" t="n">
+        <v>-0.2022917620010056</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>45051</v>
+        <v>45052</v>
       </c>
       <c r="B264" t="n">
-        <v>88.49292176589871</v>
+        <v>88.70198867395179</v>
       </c>
       <c r="C264" t="n">
-        <v>298992289.1817839</v>
+        <v>400542487.5325518</v>
       </c>
       <c r="D264" t="n">
-        <v>6451113671.021365</v>
+        <v>6468403353.365086</v>
       </c>
       <c r="E264" t="n">
-        <v>4.056788374349471</v>
+        <v>4.078839427926805</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0.2680108152703253</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>45052</v>
+        <v>45053</v>
       </c>
       <c r="B265" t="n">
-        <v>88.70198867395179</v>
+        <v>83.48702378343111</v>
       </c>
       <c r="C265" t="n">
-        <v>400542487.5325518</v>
+        <v>606010674.1128483</v>
       </c>
       <c r="D265" t="n">
-        <v>6468403353.365086</v>
+        <v>6076180090.397867</v>
       </c>
       <c r="E265" t="n">
-        <v>4.078839427926805</v>
+        <v>4.32012353131289</v>
+      </c>
+      <c r="F265" t="n">
+        <v>-6.063679729607008</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>45053</v>
+        <v>45054</v>
       </c>
       <c r="B266" t="n">
-        <v>83.48702378343111</v>
+        <v>83.82330610080038</v>
       </c>
       <c r="C266" t="n">
-        <v>606010674.1128483</v>
+        <v>337948117.7363971</v>
       </c>
       <c r="D266" t="n">
-        <v>6076180090.397867</v>
+        <v>6098941070.358689</v>
       </c>
       <c r="E266" t="n">
-        <v>4.32012353131289</v>
+        <v>4.516263638622048</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0.3745935706677139</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>45054</v>
+        <v>45055</v>
       </c>
       <c r="B267" t="n">
-        <v>83.82330610080038</v>
+        <v>77.88095679530601</v>
       </c>
       <c r="C267" t="n">
-        <v>337948117.7363971</v>
+        <v>742434140.8504282</v>
       </c>
       <c r="D267" t="n">
-        <v>6098941070.358689</v>
+        <v>5674749049.835643</v>
       </c>
       <c r="E267" t="n">
-        <v>4.516263638622048</v>
+        <v>5.095764125049785</v>
+      </c>
+      <c r="F267" t="n">
+        <v>-6.955174933311814</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>45055</v>
+        <v>45056</v>
       </c>
       <c r="B268" t="n">
-        <v>77.88095679530601</v>
+        <v>79.90653486643808</v>
       </c>
       <c r="C268" t="n">
-        <v>742434140.8504282</v>
+        <v>479198117.1023671</v>
       </c>
       <c r="D268" t="n">
-        <v>5674749049.835643</v>
+        <v>5825752953.522393</v>
       </c>
       <c r="E268" t="n">
-        <v>5.095764125049785</v>
+        <v>5.443336828505246</v>
+      </c>
+      <c r="F268" t="n">
+        <v>2.66097940826342</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="B269" t="n">
-        <v>79.90653486643808</v>
+        <v>81.14101977100839</v>
       </c>
       <c r="C269" t="n">
-        <v>479198117.1023671</v>
+        <v>583912361.5843481</v>
       </c>
       <c r="D269" t="n">
-        <v>5825752953.522393</v>
+        <v>5912695277.472594</v>
       </c>
       <c r="E269" t="n">
-        <v>5.443336828505246</v>
+        <v>5.62872435530088</v>
+      </c>
+      <c r="F269" t="n">
+        <v>1.492379176457082</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="B270" t="n">
-        <v>81.14101977100839</v>
+        <v>81.14784427446966</v>
       </c>
       <c r="C270" t="n">
-        <v>583912361.5843481</v>
+        <v>621320389.2709588</v>
       </c>
       <c r="D270" t="n">
-        <v>5912695277.472594</v>
+        <v>5896694984.72693</v>
       </c>
       <c r="E270" t="n">
-        <v>5.62872435530088</v>
+        <v>5.764222027664274</v>
+      </c>
+      <c r="F270" t="n">
+        <v>-0.2706091214716544</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>45058</v>
+        <v>45059</v>
       </c>
       <c r="B271" t="n">
-        <v>81.14784427446966</v>
+        <v>80.56664452584604</v>
       </c>
       <c r="C271" t="n">
-        <v>621320389.2709588</v>
+        <v>553394526.0712148</v>
       </c>
       <c r="D271" t="n">
-        <v>5896694984.72693</v>
+        <v>5874387030.902668</v>
       </c>
       <c r="E271" t="n">
-        <v>5.764222027664274</v>
+        <v>5.943606448065385</v>
+      </c>
+      <c r="F271" t="n">
+        <v>-0.378312832562</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>45059</v>
+        <v>45060</v>
       </c>
       <c r="B272" t="n">
-        <v>80.56664452584604</v>
+        <v>80.20833667291856</v>
       </c>
       <c r="C272" t="n">
-        <v>553394526.0712148</v>
+        <v>302597796.2123638</v>
       </c>
       <c r="D272" t="n">
-        <v>5874387030.902668</v>
+        <v>5857287637.756447</v>
       </c>
       <c r="E272" t="n">
-        <v>5.943606448065385</v>
+        <v>6.051520445358064</v>
+      </c>
+      <c r="F272" t="n">
+        <v>-0.2910838706450258</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>45060</v>
+        <v>45061</v>
       </c>
       <c r="B273" t="n">
-        <v>80.20833667291856</v>
+        <v>83.35607075753119</v>
       </c>
       <c r="C273" t="n">
-        <v>302597796.2123638</v>
+        <v>413559473.7340119</v>
       </c>
       <c r="D273" t="n">
-        <v>5857287637.756447</v>
+        <v>6078720373.508361</v>
       </c>
       <c r="E273" t="n">
-        <v>6.051520445358064</v>
+        <v>5.920009121026899</v>
+      </c>
+      <c r="F273" t="n">
+        <v>3.780465455111748</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="B274" t="n">
-        <v>83.35607075753119</v>
+        <v>87.16718796181868</v>
       </c>
       <c r="C274" t="n">
-        <v>413559473.7340119</v>
+        <v>843612280.3131028</v>
       </c>
       <c r="D274" t="n">
-        <v>6078720373.508361</v>
+        <v>6363777766.103566</v>
       </c>
       <c r="E274" t="n">
-        <v>5.920009121026899</v>
+        <v>5.673969892146325</v>
+      </c>
+      <c r="F274" t="n">
+        <v>4.689430917689719</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B275" t="n">
-        <v>87.16718796181868</v>
+        <v>90.01123284147575</v>
       </c>
       <c r="C275" t="n">
-        <v>843612280.3131028</v>
+        <v>893622008.5560278</v>
       </c>
       <c r="D275" t="n">
-        <v>6363777766.103566</v>
+        <v>6572705511.421426</v>
       </c>
       <c r="E275" t="n">
-        <v>5.673969892146325</v>
+        <v>5.17349671726802</v>
+      </c>
+      <c r="F275" t="n">
+        <v>3.283077332315187</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>45063</v>
+        <v>45064</v>
       </c>
       <c r="B276" t="n">
-        <v>90.01123284147575</v>
+        <v>93.78263054976917</v>
       </c>
       <c r="C276" t="n">
-        <v>893622008.5560278</v>
+        <v>1113068092.140489</v>
       </c>
       <c r="D276" t="n">
-        <v>6572705511.421426</v>
+        <v>6847022231.54807</v>
       </c>
       <c r="E276" t="n">
-        <v>5.17349671726802</v>
+        <v>4.868150045216927</v>
+      </c>
+      <c r="F276" t="n">
+        <v>4.173573875323688</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>45064</v>
+        <v>45065</v>
       </c>
       <c r="B277" t="n">
-        <v>93.78263054976917</v>
+        <v>90.5112817899543</v>
       </c>
       <c r="C277" t="n">
-        <v>1113068092.140489</v>
+        <v>684657004.446565</v>
       </c>
       <c r="D277" t="n">
-        <v>6847022231.54807</v>
+        <v>6616126091.256747</v>
       </c>
       <c r="E277" t="n">
-        <v>4.868150045216927</v>
+        <v>4.056872502962131</v>
+      </c>
+      <c r="F277" t="n">
+        <v>-3.372212510534212</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>45065</v>
+        <v>45066</v>
       </c>
       <c r="B278" t="n">
-        <v>90.5112817899543</v>
+        <v>91.75088123891187</v>
       </c>
       <c r="C278" t="n">
-        <v>684657004.446565</v>
+        <v>591249665.3640682</v>
       </c>
       <c r="D278" t="n">
-        <v>6616126091.256747</v>
+        <v>6695924471.481844</v>
       </c>
       <c r="E278" t="n">
-        <v>4.056872502962131</v>
+        <v>4.114381969895708</v>
+      </c>
+      <c r="F278" t="n">
+        <v>1.206119398639505</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>45066</v>
+        <v>45067</v>
       </c>
       <c r="B279" t="n">
-        <v>91.75088123891187</v>
+        <v>92.29702376838286</v>
       </c>
       <c r="C279" t="n">
-        <v>591249665.3640682</v>
+        <v>319258521.6188254</v>
       </c>
       <c r="D279" t="n">
-        <v>6695924471.481844</v>
+        <v>6734871525.908334</v>
       </c>
       <c r="E279" t="n">
-        <v>4.114381969895708</v>
+        <v>4.191200519689057</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0.5816531323249885</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>45067</v>
+        <v>45068</v>
       </c>
       <c r="B280" t="n">
-        <v>92.29702376838286</v>
+        <v>92.34445487217688</v>
       </c>
       <c r="C280" t="n">
-        <v>319258521.6188254</v>
+        <v>391870823.4290872</v>
       </c>
       <c r="D280" t="n">
-        <v>6734871525.908334</v>
+        <v>6742695284.750363</v>
       </c>
       <c r="E280" t="n">
-        <v>4.191200519689057</v>
+        <v>4.301681240772356</v>
+      </c>
+      <c r="F280" t="n">
+        <v>0.1161679003368166</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>45068</v>
+        <v>45069</v>
       </c>
       <c r="B281" t="n">
-        <v>92.34445487217688</v>
+        <v>90.84432192601766</v>
       </c>
       <c r="C281" t="n">
-        <v>391870823.4290872</v>
+        <v>420368979.4010179</v>
       </c>
       <c r="D281" t="n">
-        <v>6742695284.750363</v>
+        <v>6630108064.560425</v>
       </c>
       <c r="E281" t="n">
-        <v>4.301681240772356</v>
+        <v>4.357332340539411</v>
+      </c>
+      <c r="F281" t="n">
+        <v>-1.669765804849166</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="B282" t="n">
-        <v>90.84432192601766</v>
+        <v>91.65530565048434</v>
       </c>
       <c r="C282" t="n">
-        <v>420368979.4010179</v>
+        <v>405264406.9780508</v>
       </c>
       <c r="D282" t="n">
-        <v>6630108064.560425</v>
+        <v>6685390204.975618</v>
       </c>
       <c r="E282" t="n">
-        <v>4.357332340539411</v>
+        <v>4.433042692764604</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0.833804515354597</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>45070</v>
+        <v>45071</v>
       </c>
       <c r="B283" t="n">
-        <v>91.65530565048434</v>
+        <v>85.99243103695191</v>
       </c>
       <c r="C283" t="n">
-        <v>405264406.9780508</v>
+        <v>844848512.8579224</v>
       </c>
       <c r="D283" t="n">
-        <v>6685390204.975618</v>
+        <v>6289376593.411084</v>
       </c>
       <c r="E283" t="n">
-        <v>4.433042692764604</v>
+        <v>4.434951164765785</v>
+      </c>
+      <c r="F283" t="n">
+        <v>-5.923567651590478</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>45071</v>
+        <v>45072</v>
       </c>
       <c r="B284" t="n">
-        <v>85.99243103695191</v>
+        <v>86.52145051886268</v>
       </c>
       <c r="C284" t="n">
-        <v>844848512.8579224</v>
+        <v>663443150.9400694</v>
       </c>
       <c r="D284" t="n">
-        <v>6289376593.411084</v>
+        <v>6302007214.793981</v>
       </c>
       <c r="E284" t="n">
-        <v>4.434951164765785</v>
+        <v>4.371914542633262</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0.2008246953462578</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>45072</v>
+        <v>45073</v>
       </c>
       <c r="B285" t="n">
-        <v>86.52145051886268</v>
+        <v>87.22143317339614</v>
       </c>
       <c r="C285" t="n">
-        <v>663443150.9400694</v>
+        <v>620061069.8305258</v>
       </c>
       <c r="D285" t="n">
-        <v>6302007214.793981</v>
+        <v>6364807093.73053</v>
       </c>
       <c r="E285" t="n">
-        <v>4.371914542633262</v>
+        <v>4.367824892451448</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.9965059828736189</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45073</v>
+        <v>45074</v>
       </c>
       <c r="B286" t="n">
-        <v>87.22143317339614</v>
+        <v>88.57075731062847</v>
       </c>
       <c r="C286" t="n">
-        <v>620061069.8305258</v>
+        <v>415935581.2882664</v>
       </c>
       <c r="D286" t="n">
-        <v>6364807093.73053</v>
+        <v>6465963300.93987</v>
       </c>
       <c r="E286" t="n">
-        <v>4.367824892451448</v>
+        <v>4.348995799544778</v>
+      </c>
+      <c r="F286" t="n">
+        <v>1.589305154416709</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>45074</v>
+        <v>45075</v>
       </c>
       <c r="B287" t="n">
-        <v>88.57075731062847</v>
+        <v>91.55658763308094</v>
       </c>
       <c r="C287" t="n">
-        <v>415935581.2882664</v>
+        <v>552791933.1502072</v>
       </c>
       <c r="D287" t="n">
-        <v>6465963300.93987</v>
+        <v>6690577645.313841</v>
       </c>
       <c r="E287" t="n">
-        <v>4.348995799544778</v>
+        <v>4.401145243773265</v>
+      </c>
+      <c r="F287" t="n">
+        <v>3.473795533935697</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>45075</v>
+        <v>45076</v>
       </c>
       <c r="B288" t="n">
-        <v>91.55658763308094</v>
+        <v>90.96051451603776</v>
       </c>
       <c r="C288" t="n">
-        <v>552791933.1502072</v>
+        <v>428503707.830982</v>
       </c>
       <c r="D288" t="n">
-        <v>6690577645.313841</v>
+        <v>6646116702.466727</v>
       </c>
       <c r="E288" t="n">
-        <v>4.401145243773265</v>
+        <v>4.400036877321702</v>
+      </c>
+      <c r="F288" t="n">
+        <v>-0.6645307057792649</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>45076</v>
+        <v>45077</v>
       </c>
       <c r="B289" t="n">
-        <v>90.96051451603776</v>
+        <v>92.32631297902313</v>
       </c>
       <c r="C289" t="n">
-        <v>428503707.830982</v>
+        <v>479768164.1285239</v>
       </c>
       <c r="D289" t="n">
-        <v>6646116702.466727</v>
+        <v>6739554549.559978</v>
       </c>
       <c r="E289" t="n">
-        <v>4.400036877321702</v>
+        <v>4.494505870834325</v>
+      </c>
+      <c r="F289" t="n">
+        <v>1.405901389883391</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="B290" t="n">
-        <v>92.32631297902313</v>
+        <v>90.62986947856317</v>
       </c>
       <c r="C290" t="n">
-        <v>479768164.1285239</v>
+        <v>565956357.1470588</v>
       </c>
       <c r="D290" t="n">
-        <v>6739554549.559978</v>
+        <v>6622747030.394531</v>
       </c>
       <c r="E290" t="n">
-        <v>4.494505870834325</v>
+        <v>4.536684784414236</v>
+      </c>
+      <c r="F290" t="n">
+        <v>-1.733163791560577</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>45078</v>
+        <v>45079</v>
       </c>
       <c r="B291" t="n">
-        <v>90.62986947856317</v>
+        <v>93.95484073541274</v>
       </c>
       <c r="C291" t="n">
-        <v>565956357.1470588</v>
+        <v>1044568237.713101</v>
       </c>
       <c r="D291" t="n">
-        <v>6622747030.394531</v>
+        <v>6860550498.174175</v>
       </c>
       <c r="E291" t="n">
-        <v>4.536684784414236</v>
+        <v>4.692979183441691</v>
+      </c>
+      <c r="F291" t="n">
+        <v>3.590707401147375</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="B292" t="n">
-        <v>93.95484073541274</v>
+        <v>95.38802715025643</v>
       </c>
       <c r="C292" t="n">
-        <v>1044568237.713101</v>
+        <v>762227004.1644586</v>
       </c>
       <c r="D292" t="n">
-        <v>6860550498.174175</v>
+        <v>6972651233.788233</v>
       </c>
       <c r="E292" t="n">
-        <v>4.692979183441691</v>
+        <v>4.90435635313674</v>
+      </c>
+      <c r="F292" t="n">
+        <v>1.633990386688233</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>45080</v>
+        <v>45081</v>
       </c>
       <c r="B293" t="n">
-        <v>95.38802715025643</v>
+        <v>95.92276998206682</v>
       </c>
       <c r="C293" t="n">
-        <v>762227004.1644586</v>
+        <v>1426559318.408114</v>
       </c>
       <c r="D293" t="n">
-        <v>6972651233.788233</v>
+        <v>7011448218.671652</v>
       </c>
       <c r="E293" t="n">
-        <v>4.90435635313674</v>
+        <v>5.126266944588886</v>
+      </c>
+      <c r="F293" t="n">
+        <v>0.5564165420380629</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>45081</v>
+        <v>45082</v>
       </c>
       <c r="B294" t="n">
-        <v>95.92276998206682</v>
+        <v>94.33437773316017</v>
       </c>
       <c r="C294" t="n">
-        <v>1426559318.408114</v>
+        <v>6427943230.219169</v>
       </c>
       <c r="D294" t="n">
-        <v>7011448218.671652</v>
+        <v>6907416255.543384</v>
       </c>
       <c r="E294" t="n">
-        <v>5.126266944588886</v>
+        <v>5.254860331535114</v>
+      </c>
+      <c r="F294" t="n">
+        <v>-1.483744297664902</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="B295" t="n">
-        <v>94.33437773316017</v>
+        <v>87.92972148963629</v>
       </c>
       <c r="C295" t="n">
-        <v>6427943230.219169</v>
+        <v>971842530.1160511</v>
       </c>
       <c r="D295" t="n">
-        <v>6907416255.543384</v>
+        <v>6429586204.016546</v>
       </c>
       <c r="E295" t="n">
-        <v>5.254860331535114</v>
+        <v>5.180250600844033</v>
+      </c>
+      <c r="F295" t="n">
+        <v>-6.917637997324489</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="B296" t="n">
-        <v>87.92972148963629</v>
+        <v>90.86149323993763</v>
       </c>
       <c r="C296" t="n">
-        <v>971842530.1160511</v>
+        <v>679258512.5916731</v>
       </c>
       <c r="D296" t="n">
-        <v>6429586204.016546</v>
+        <v>6636326316.849116</v>
       </c>
       <c r="E296" t="n">
-        <v>5.180250600844033</v>
+        <v>5.128533309838961</v>
+      </c>
+      <c r="F296" t="n">
+        <v>3.215449739260356</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="B297" t="n">
-        <v>90.86149323993763</v>
+        <v>88.85126497106056</v>
       </c>
       <c r="C297" t="n">
-        <v>679258512.5916731</v>
+        <v>571983245.1955197</v>
       </c>
       <c r="D297" t="n">
-        <v>6636326316.849116</v>
+        <v>6492277830.374296</v>
       </c>
       <c r="E297" t="n">
-        <v>5.128533309838961</v>
+        <v>4.715445033909925</v>
+      </c>
+      <c r="F297" t="n">
+        <v>-2.170605838189299</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="B298" t="n">
-        <v>88.85126497106056</v>
+        <v>88.46009852100552</v>
       </c>
       <c r="C298" t="n">
-        <v>571983245.1955197</v>
+        <v>374212045.018494</v>
       </c>
       <c r="D298" t="n">
-        <v>6492277830.374296</v>
+        <v>6468109131.689234</v>
       </c>
       <c r="E298" t="n">
-        <v>4.715445033909925</v>
+        <v>4.399424672470523</v>
+      </c>
+      <c r="F298" t="n">
+        <v>-0.3722683981882025</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>45086</v>
+        <v>45087</v>
       </c>
       <c r="B299" t="n">
-        <v>88.46009852100552</v>
+        <v>89.14363098430952</v>
       </c>
       <c r="C299" t="n">
-        <v>374212045.018494</v>
+        <v>413318405.7352429</v>
       </c>
       <c r="D299" t="n">
-        <v>6468109131.689234</v>
+        <v>6511402969.522163</v>
       </c>
       <c r="E299" t="n">
-        <v>4.399424672470523</v>
+        <v>4.12758784933408</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0.6693430328938099</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>45087</v>
+        <v>45088</v>
       </c>
       <c r="B300" t="n">
-        <v>89.14363098430952</v>
+        <v>77.34095836069854</v>
       </c>
       <c r="C300" t="n">
-        <v>413318405.7352429</v>
+        <v>1268356473.332202</v>
       </c>
       <c r="D300" t="n">
-        <v>6511402969.522163</v>
+        <v>5660930950.340992</v>
       </c>
       <c r="E300" t="n">
-        <v>4.12758784933408</v>
+        <v>4.439196874040152</v>
+      </c>
+      <c r="F300" t="n">
+        <v>-13.06127148268913</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>45088</v>
+        <v>45089</v>
       </c>
       <c r="B301" t="n">
-        <v>77.34095836069854</v>
+        <v>77.61883106143392</v>
       </c>
       <c r="C301" t="n">
-        <v>1268356473.332202</v>
+        <v>459311154.2831526</v>
       </c>
       <c r="D301" t="n">
-        <v>5660930950.340992</v>
+        <v>5673912254.886161</v>
       </c>
       <c r="E301" t="n">
-        <v>4.439196874040152</v>
+        <v>4.667065276279584</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.2293139531120314</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>45089</v>
+        <v>45090</v>
       </c>
       <c r="B302" t="n">
-        <v>77.61883106143392</v>
+        <v>77.58700823632584</v>
       </c>
       <c r="C302" t="n">
-        <v>459311154.2831526</v>
+        <v>472462474.9163339</v>
       </c>
       <c r="D302" t="n">
-        <v>5673912254.886161</v>
+        <v>5674590336.291373</v>
       </c>
       <c r="E302" t="n">
-        <v>4.667065276279584</v>
+        <v>4.862632216408083</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0.01195086167622428</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>45090</v>
+        <v>45091</v>
       </c>
       <c r="B303" t="n">
-        <v>77.58700823632584</v>
+        <v>77.33285103848912</v>
       </c>
       <c r="C303" t="n">
-        <v>472462474.9163339</v>
+        <v>445661532.4758598</v>
       </c>
       <c r="D303" t="n">
-        <v>5674590336.291373</v>
+        <v>5652864555.503447</v>
       </c>
       <c r="E303" t="n">
-        <v>4.862632216408083</v>
+        <v>5.221752823461318</v>
+      </c>
+      <c r="F303" t="n">
+        <v>-0.3828607793761152</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="B304" t="n">
-        <v>77.33285103848912</v>
+        <v>73.14853931172605</v>
       </c>
       <c r="C304" t="n">
-        <v>445661532.4758598</v>
+        <v>497673271.8372868</v>
       </c>
       <c r="D304" t="n">
-        <v>5652864555.503447</v>
+        <v>5353315461.754756</v>
       </c>
       <c r="E304" t="n">
-        <v>5.221752823461318</v>
+        <v>5.962632889263762</v>
+      </c>
+      <c r="F304" t="n">
+        <v>-5.299067239406241</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="B305" t="n">
-        <v>73.14853931172605</v>
+        <v>74.45109550645611</v>
       </c>
       <c r="C305" t="n">
-        <v>497673271.8372868</v>
+        <v>410245725.188207</v>
       </c>
       <c r="D305" t="n">
-        <v>5353315461.754756</v>
+        <v>5443257521.138229</v>
       </c>
       <c r="E305" t="n">
-        <v>5.962632889263762</v>
+        <v>6.480472975436956</v>
+      </c>
+      <c r="F305" t="n">
+        <v>1.68011879789336</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>45093</v>
+        <v>45094</v>
       </c>
       <c r="B306" t="n">
-        <v>74.45109550645611</v>
+        <v>76.02966815027389</v>
       </c>
       <c r="C306" t="n">
-        <v>410245725.188207</v>
+        <v>360183699.6018262</v>
       </c>
       <c r="D306" t="n">
-        <v>5443257521.138229</v>
+        <v>5560023225.238444</v>
       </c>
       <c r="E306" t="n">
-        <v>6.480472975436956</v>
+        <v>6.737451700796295</v>
+      </c>
+      <c r="F306" t="n">
+        <v>2.145143852679565</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>45094</v>
+        <v>45095</v>
       </c>
       <c r="B307" t="n">
-        <v>76.02966815027389</v>
+        <v>76.79720417240186</v>
       </c>
       <c r="C307" t="n">
-        <v>360183699.6018262</v>
+        <v>274612294.7048523</v>
       </c>
       <c r="D307" t="n">
-        <v>5560023225.238444</v>
+        <v>5620075408.706524</v>
       </c>
       <c r="E307" t="n">
-        <v>6.737451700796295</v>
+        <v>6.978913660157092</v>
+      </c>
+      <c r="F307" t="n">
+        <v>1.080070730558935</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>45095</v>
+        <v>45096</v>
       </c>
       <c r="B308" t="n">
-        <v>76.79720417240186</v>
+        <v>77.12473118289505</v>
       </c>
       <c r="C308" t="n">
-        <v>274612294.7048523</v>
+        <v>261063363.4034534</v>
       </c>
       <c r="D308" t="n">
-        <v>5620075408.706524</v>
+        <v>5643524048.088004</v>
       </c>
       <c r="E308" t="n">
-        <v>6.978913660157092</v>
+        <v>7.139373724078037</v>
+      </c>
+      <c r="F308" t="n">
+        <v>0.4172299778247401</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="B309" t="n">
-        <v>77.12473118289505</v>
+        <v>77.37016889500566</v>
       </c>
       <c r="C309" t="n">
-        <v>261063363.4034534</v>
+        <v>260033664.7931744</v>
       </c>
       <c r="D309" t="n">
-        <v>5643524048.088004</v>
+        <v>5661405072.718246</v>
       </c>
       <c r="E309" t="n">
-        <v>7.139373724078037</v>
+        <v>7.236585020820713</v>
+      </c>
+      <c r="F309" t="n">
+        <v>0.3168414713551115</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="B310" t="n">
-        <v>77.37016889500566</v>
+        <v>80.4202991576249</v>
       </c>
       <c r="C310" t="n">
-        <v>260033664.7931744</v>
+        <v>402976758.726326</v>
       </c>
       <c r="D310" t="n">
-        <v>5661405072.718246</v>
+        <v>5871553164.040195</v>
       </c>
       <c r="E310" t="n">
-        <v>7.236585020820713</v>
+        <v>7.20019989492818</v>
+      </c>
+      <c r="F310" t="n">
+        <v>3.71194232920431</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="B311" t="n">
-        <v>80.4202991576249</v>
+        <v>85.19029913244927</v>
       </c>
       <c r="C311" t="n">
-        <v>402976758.726326</v>
+        <v>757127509.3467805</v>
       </c>
       <c r="D311" t="n">
-        <v>5871553164.040195</v>
+        <v>6229799113.603579</v>
       </c>
       <c r="E311" t="n">
-        <v>7.20019989492818</v>
+        <v>7.130361462222309</v>
+      </c>
+      <c r="F311" t="n">
+        <v>6.101383050696518</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="B312" t="n">
-        <v>85.19029913244927</v>
+        <v>86.11576831171845</v>
       </c>
       <c r="C312" t="n">
-        <v>757127509.3467805</v>
+        <v>584692457.8369169</v>
       </c>
       <c r="D312" t="n">
-        <v>6229799113.603579</v>
+        <v>6300886441.897194</v>
       </c>
       <c r="E312" t="n">
-        <v>7.130361462222309</v>
+        <v>7.032675775064754</v>
+      </c>
+      <c r="F312" t="n">
+        <v>1.141085402551534</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="B313" t="n">
-        <v>86.11576831171845</v>
+        <v>91.10233933948921</v>
       </c>
       <c r="C313" t="n">
-        <v>584692457.8369169</v>
+        <v>738795718.4279305</v>
       </c>
       <c r="D313" t="n">
-        <v>6300886441.897194</v>
+        <v>6667309534.910794</v>
       </c>
       <c r="E313" t="n">
-        <v>7.032675775064754</v>
+        <v>7.114640458914813</v>
+      </c>
+      <c r="F313" t="n">
+        <v>5.815421312422053</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="B314" t="n">
-        <v>91.10233933948921</v>
+        <v>89.53494263364367</v>
       </c>
       <c r="C314" t="n">
-        <v>738795718.4279305</v>
+        <v>643608881.6352775</v>
       </c>
       <c r="D314" t="n">
-        <v>6667309534.910794</v>
+        <v>6551549785.14716</v>
       </c>
       <c r="E314" t="n">
-        <v>7.114640458914813</v>
+        <v>7.153035361894106</v>
+      </c>
+      <c r="F314" t="n">
+        <v>-1.736228821498442</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="B315" t="n">
-        <v>89.53494263364367</v>
+        <v>88.20926185045415</v>
       </c>
       <c r="C315" t="n">
-        <v>643608881.6352775</v>
+        <v>463494457.8643504</v>
       </c>
       <c r="D315" t="n">
-        <v>6551549785.14716</v>
+        <v>6452389651.738883</v>
       </c>
       <c r="E315" t="n">
-        <v>7.153035361894106</v>
+        <v>7.163772075958663</v>
+      </c>
+      <c r="F315" t="n">
+        <v>-1.513537050929226</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="B316" t="n">
-        <v>88.20926185045415</v>
+        <v>87.24286160348861</v>
       </c>
       <c r="C316" t="n">
-        <v>463494457.8643504</v>
+        <v>537323741.3666562</v>
       </c>
       <c r="D316" t="n">
-        <v>6452389651.738883</v>
+        <v>6375912519.726972</v>
       </c>
       <c r="E316" t="n">
-        <v>7.163772075958663</v>
+        <v>7.148072768372478</v>
+      </c>
+      <c r="F316" t="n">
+        <v>-1.185252846459783</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="B317" t="n">
-        <v>87.24286160348861</v>
+        <v>87.97124299438428</v>
       </c>
       <c r="C317" t="n">
-        <v>537323741.3666562</v>
+        <v>404700854.6556445</v>
       </c>
       <c r="D317" t="n">
-        <v>6375912519.726972</v>
+        <v>6440095770.697444</v>
       </c>
       <c r="E317" t="n">
-        <v>7.148072768372478</v>
+        <v>7.071693013596782</v>
+      </c>
+      <c r="F317" t="n">
+        <v>1.006652001135366</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="B318" t="n">
-        <v>87.97124299438428</v>
+        <v>83.09066613995722</v>
       </c>
       <c r="C318" t="n">
-        <v>404700854.6556445</v>
+        <v>516935562.13846</v>
       </c>
       <c r="D318" t="n">
-        <v>6440095770.697444</v>
+        <v>6090591701.852871</v>
       </c>
       <c r="E318" t="n">
-        <v>7.071693013596782</v>
+        <v>7.000531552840207</v>
+      </c>
+      <c r="F318" t="n">
+        <v>-5.427001108195051</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="B319" t="n">
-        <v>83.09066613995722</v>
+        <v>84.85572959863613</v>
       </c>
       <c r="C319" t="n">
-        <v>516935562.13846</v>
+        <v>362113142.264163</v>
       </c>
       <c r="D319" t="n">
-        <v>6090591701.852871</v>
+        <v>6216073622.18293</v>
       </c>
       <c r="E319" t="n">
-        <v>7.000531552840207</v>
+        <v>6.864298235427878</v>
+      </c>
+      <c r="F319" t="n">
+        <v>2.06025828807217</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>45107</v>
+        <v>45108</v>
       </c>
       <c r="B320" t="n">
-        <v>84.85572959863613</v>
+        <v>107.9621679018031</v>
       </c>
       <c r="C320" t="n">
-        <v>362113142.264163</v>
+        <v>3311758400.598672</v>
       </c>
       <c r="D320" t="n">
-        <v>6216073622.18293</v>
+        <v>7898586033.718159</v>
       </c>
       <c r="E320" t="n">
-        <v>6.864298235427878</v>
+        <v>8.006273271954329</v>
+      </c>
+      <c r="F320" t="n">
+        <v>27.06712490551828</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="B321" t="n">
-        <v>107.9621679018031</v>
+        <v>107.1162725091763</v>
       </c>
       <c r="C321" t="n">
-        <v>3311758400.598672</v>
+        <v>1792544277.825324</v>
       </c>
       <c r="D321" t="n">
-        <v>7898586033.718159</v>
+        <v>7806662545.674399</v>
       </c>
       <c r="E321" t="n">
-        <v>8.006273271954329</v>
+        <v>8.812462992206756</v>
+      </c>
+      <c r="F321" t="n">
+        <v>-1.163796756170643</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>45109</v>
+        <v>45110</v>
       </c>
       <c r="B322" t="n">
-        <v>107.1162725091763</v>
+        <v>113.1661811382059</v>
       </c>
       <c r="C322" t="n">
-        <v>1792544277.825324</v>
+        <v>1755354196.287169</v>
       </c>
       <c r="D322" t="n">
-        <v>7806662545.674399</v>
+        <v>8293907177.649132</v>
       </c>
       <c r="E322" t="n">
-        <v>8.812462992206756</v>
+        <v>9.996499567985607</v>
+      </c>
+      <c r="F322" t="n">
+        <v>6.241394822999102</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45110</v>
+        <v>45111</v>
       </c>
       <c r="B323" t="n">
-        <v>113.1661811382059</v>
+        <v>106.7100330624772</v>
       </c>
       <c r="C323" t="n">
-        <v>1755354196.287169</v>
+        <v>1116931466.582855</v>
       </c>
       <c r="D323" t="n">
-        <v>8293907177.649132</v>
+        <v>7817694239.119114</v>
       </c>
       <c r="E323" t="n">
-        <v>9.996499567985607</v>
+        <v>10.53025598820545</v>
+      </c>
+      <c r="F323" t="n">
+        <v>-5.741720136600303</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="B324" t="n">
-        <v>106.7100330624772</v>
+        <v>104.853463601183</v>
       </c>
       <c r="C324" t="n">
-        <v>1116931466.582855</v>
+        <v>762246260.3246011</v>
       </c>
       <c r="D324" t="n">
-        <v>7817694239.119114</v>
+        <v>7725148136.876751</v>
       </c>
       <c r="E324" t="n">
-        <v>10.53025598820545</v>
+        <v>10.95732656796755</v>
+      </c>
+      <c r="F324" t="n">
+        <v>-1.18380304232506</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B325" t="n">
-        <v>104.853463601183</v>
+        <v>102.6118193995544</v>
       </c>
       <c r="C325" t="n">
-        <v>762246260.3246011</v>
+        <v>1770959375.360409</v>
       </c>
       <c r="D325" t="n">
-        <v>7725148136.876751</v>
+        <v>7537723850.102127</v>
       </c>
       <c r="E325" t="n">
-        <v>10.95732656796755</v>
+        <v>11.31674603102406</v>
+      </c>
+      <c r="F325" t="n">
+        <v>-2.426157834824372</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45113</v>
+        <v>45114</v>
       </c>
       <c r="B326" t="n">
-        <v>102.6118193995544</v>
+        <v>95.72736459264779</v>
       </c>
       <c r="C326" t="n">
-        <v>1770959375.360409</v>
+        <v>2025976076.642092</v>
       </c>
       <c r="D326" t="n">
-        <v>7537723850.102127</v>
+        <v>7029669502.860462</v>
       </c>
       <c r="E326" t="n">
-        <v>11.31674603102406</v>
+        <v>11.39953583408799</v>
+      </c>
+      <c r="F326" t="n">
+        <v>-6.740156011881249</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="B327" t="n">
-        <v>95.72736459264779</v>
+        <v>98.15128945261372</v>
       </c>
       <c r="C327" t="n">
-        <v>2025976076.642092</v>
+        <v>1797239546.520971</v>
       </c>
       <c r="D327" t="n">
-        <v>7029669502.860462</v>
+        <v>7187472863.235257</v>
       </c>
       <c r="E327" t="n">
-        <v>11.39953583408799</v>
+        <v>11.55530827113398</v>
+      </c>
+      <c r="F327" t="n">
+        <v>2.244819053165759</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45115</v>
+        <v>45116</v>
       </c>
       <c r="B328" t="n">
-        <v>98.15128945261372</v>
+        <v>97.84223766153693</v>
       </c>
       <c r="C328" t="n">
-        <v>1797239546.520971</v>
+        <v>1096104130.009528</v>
       </c>
       <c r="D328" t="n">
-        <v>7187472863.235257</v>
+        <v>7176693372.889008</v>
       </c>
       <c r="E328" t="n">
-        <v>11.55530827113398</v>
+        <v>11.69206771511598</v>
+      </c>
+      <c r="F328" t="n">
+        <v>-0.149976084103054</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45116</v>
+        <v>45117</v>
       </c>
       <c r="B329" t="n">
-        <v>97.84223766153693</v>
+        <v>95.23888151550278</v>
       </c>
       <c r="C329" t="n">
-        <v>1096104130.009528</v>
+        <v>617661128.0181886</v>
       </c>
       <c r="D329" t="n">
-        <v>7176693372.889008</v>
+        <v>6984299389.777212</v>
       </c>
       <c r="E329" t="n">
-        <v>11.69206771511598</v>
+        <v>11.75831542286826</v>
+      </c>
+      <c r="F329" t="n">
+        <v>-2.680816542038589</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45117</v>
+        <v>45118</v>
       </c>
       <c r="B330" t="n">
-        <v>95.23888151550278</v>
+        <v>96.68757534145108</v>
       </c>
       <c r="C330" t="n">
-        <v>617661128.0181886</v>
+        <v>1297261551.635684</v>
       </c>
       <c r="D330" t="n">
-        <v>6984299389.777212</v>
+        <v>7083219740.855186</v>
       </c>
       <c r="E330" t="n">
-        <v>11.75831542286826</v>
+        <v>11.64971307558598</v>
+      </c>
+      <c r="F330" t="n">
+        <v>1.416324609777764</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="B331" t="n">
-        <v>96.68757534145108</v>
+        <v>96.8236888507122</v>
       </c>
       <c r="C331" t="n">
-        <v>1297261551.635684</v>
+        <v>978021850.3888323</v>
       </c>
       <c r="D331" t="n">
-        <v>7083219740.855186</v>
+        <v>7100667449.486484</v>
       </c>
       <c r="E331" t="n">
-        <v>11.64971307558598</v>
+        <v>11.51587710773056</v>
+      </c>
+      <c r="F331" t="n">
+        <v>0.2463245426463478</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45119</v>
+        <v>45120</v>
       </c>
       <c r="B332" t="n">
-        <v>96.8236888507122</v>
+        <v>96.40213440964551</v>
       </c>
       <c r="C332" t="n">
-        <v>978021850.3888323</v>
+        <v>799454763.4941199</v>
       </c>
       <c r="D332" t="n">
-        <v>7100667449.486484</v>
+        <v>7070170253.25194</v>
       </c>
       <c r="E332" t="n">
-        <v>11.51587710773056</v>
+        <v>11.33408847088617</v>
+      </c>
+      <c r="F332" t="n">
+        <v>-0.4294975993665129</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="B333" t="n">
-        <v>96.40213440964551</v>
+        <v>101.7197693421679</v>
       </c>
       <c r="C333" t="n">
-        <v>799454763.4941199</v>
+        <v>2008982216.199623</v>
       </c>
       <c r="D333" t="n">
-        <v>7070170253.25194</v>
+        <v>7452474406.529495</v>
       </c>
       <c r="E333" t="n">
-        <v>11.33408847088617</v>
+        <v>11.23052206122929</v>
+      </c>
+      <c r="F333" t="n">
+        <v>5.407283553061726</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45121</v>
+        <v>45122</v>
       </c>
       <c r="B334" t="n">
-        <v>101.7197693421679</v>
+        <v>94.89394004619243</v>
       </c>
       <c r="C334" t="n">
-        <v>2008982216.199623</v>
+        <v>1694203691.684335</v>
       </c>
       <c r="D334" t="n">
-        <v>7452474406.529495</v>
+        <v>6947916221.971359</v>
       </c>
       <c r="E334" t="n">
-        <v>11.23052206122929</v>
+        <v>10.70662861044703</v>
+      </c>
+      <c r="F334" t="n">
+        <v>-6.770344412267515</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45122</v>
+        <v>45123</v>
       </c>
       <c r="B335" t="n">
-        <v>94.89394004619243</v>
+        <v>94.71948998071656</v>
       </c>
       <c r="C335" t="n">
-        <v>1694203691.684335</v>
+        <v>628812856.5723193</v>
       </c>
       <c r="D335" t="n">
-        <v>6947916221.971359</v>
+        <v>6947465306.063333</v>
       </c>
       <c r="E335" t="n">
-        <v>10.70662861044703</v>
+        <v>10.18476475169981</v>
+      </c>
+      <c r="F335" t="n">
+        <v>-0.006489944518917046</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45123</v>
+        <v>45124</v>
       </c>
       <c r="B336" t="n">
-        <v>94.71948998071656</v>
+        <v>92.77992474744069</v>
       </c>
       <c r="C336" t="n">
-        <v>628812856.5723193</v>
+        <v>561081349.8465809</v>
       </c>
       <c r="D336" t="n">
-        <v>6947465306.063333</v>
+        <v>6801570882.352193</v>
       </c>
       <c r="E336" t="n">
-        <v>10.18476475169981</v>
+        <v>9.684944949322048</v>
+      </c>
+      <c r="F336" t="n">
+        <v>-2.099966207586701</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45124</v>
+        <v>45125</v>
       </c>
       <c r="B337" t="n">
-        <v>92.77992474744069</v>
+        <v>92.2768192686846</v>
       </c>
       <c r="C337" t="n">
-        <v>561081349.8465809</v>
+        <v>907554886.3213955</v>
       </c>
       <c r="D337" t="n">
-        <v>6801570882.352193</v>
+        <v>6770123658.118758</v>
       </c>
       <c r="E337" t="n">
-        <v>9.684944949322048</v>
+        <v>9.175398832385824</v>
+      </c>
+      <c r="F337" t="n">
+        <v>-0.4623523709064048</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="B338" t="n">
-        <v>92.2768192686846</v>
+        <v>91.4701662643582</v>
       </c>
       <c r="C338" t="n">
-        <v>907554886.3213955</v>
+        <v>729791087.8184167</v>
       </c>
       <c r="D338" t="n">
-        <v>6770123658.118758</v>
+        <v>6707127910.491501</v>
       </c>
       <c r="E338" t="n">
-        <v>9.175398832385824</v>
+        <v>8.634411816146629</v>
+      </c>
+      <c r="F338" t="n">
+        <v>-0.9304962628225111</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="B339" t="n">
-        <v>91.4701662643582</v>
+        <v>92.19319962899404</v>
       </c>
       <c r="C339" t="n">
-        <v>729791087.8184167</v>
+        <v>706868382.848693</v>
       </c>
       <c r="D339" t="n">
-        <v>6707127910.491501</v>
+        <v>6763552307.404192</v>
       </c>
       <c r="E339" t="n">
-        <v>8.634411816146629</v>
+        <v>8.037130942472148</v>
+      </c>
+      <c r="F339" t="n">
+        <v>0.8412601886484072</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="B340" t="n">
-        <v>92.19319962899404</v>
+        <v>92.31318024793325</v>
       </c>
       <c r="C340" t="n">
-        <v>706868382.848693</v>
+        <v>871573483.2879202</v>
       </c>
       <c r="D340" t="n">
-        <v>6763552307.404192</v>
+        <v>6784481630.954276</v>
       </c>
       <c r="E340" t="n">
-        <v>8.037130942472148</v>
+        <v>7.585585454314609</v>
+      </c>
+      <c r="F340" t="n">
+        <v>0.3094427691077817</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45128</v>
+        <v>45129</v>
       </c>
       <c r="B341" t="n">
-        <v>92.31318024793325</v>
+        <v>94.02981109101803</v>
       </c>
       <c r="C341" t="n">
-        <v>871573483.2879202</v>
+        <v>670993063.19064</v>
       </c>
       <c r="D341" t="n">
-        <v>6784481630.954276</v>
+        <v>6899920317.255177</v>
       </c>
       <c r="E341" t="n">
-        <v>7.585585454314609</v>
+        <v>7.352851056799789</v>
+      </c>
+      <c r="F341" t="n">
+        <v>1.701510779750803</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45129</v>
+        <v>45130</v>
       </c>
       <c r="B342" t="n">
-        <v>94.02981109101803</v>
+        <v>91.85135193350833</v>
       </c>
       <c r="C342" t="n">
-        <v>670993063.19064</v>
+        <v>653180952.5388396</v>
       </c>
       <c r="D342" t="n">
-        <v>6899920317.255177</v>
+        <v>6731438296.412423</v>
       </c>
       <c r="E342" t="n">
-        <v>7.352851056799789</v>
+        <v>7.173886021241464</v>
+      </c>
+      <c r="F342" t="n">
+        <v>-2.441796616424929</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45130</v>
+        <v>45131</v>
       </c>
       <c r="B343" t="n">
-        <v>91.85135193350833</v>
+        <v>93.12251956008376</v>
       </c>
       <c r="C343" t="n">
-        <v>653180952.5388396</v>
+        <v>544133078.0254151</v>
       </c>
       <c r="D343" t="n">
-        <v>6731438296.412423</v>
+        <v>6834328205.808162</v>
       </c>
       <c r="E343" t="n">
-        <v>7.173886021241464</v>
+        <v>7.13910803504459</v>
+      </c>
+      <c r="F343" t="n">
+        <v>1.528498143562795</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45131</v>
+        <v>45132</v>
       </c>
       <c r="B344" t="n">
-        <v>93.12251956008376</v>
+        <v>89.18416546665846</v>
       </c>
       <c r="C344" t="n">
-        <v>544133078.0254151</v>
+        <v>931454213.8966243</v>
       </c>
       <c r="D344" t="n">
-        <v>6834328205.808162</v>
+        <v>6546088292.883008</v>
       </c>
       <c r="E344" t="n">
-        <v>7.13910803504459</v>
+        <v>7.149864698108392</v>
+      </c>
+      <c r="F344" t="n">
+        <v>-4.217531032240929</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="B345" t="n">
-        <v>89.18416546665846</v>
+        <v>89.46837675509562</v>
       </c>
       <c r="C345" t="n">
-        <v>931454213.8966243</v>
+        <v>580236656.4490404</v>
       </c>
       <c r="D345" t="n">
-        <v>6546088292.883008</v>
+        <v>6568808348.940412</v>
       </c>
       <c r="E345" t="n">
-        <v>7.149864698108392</v>
+        <v>7.107905464421733</v>
+      </c>
+      <c r="F345" t="n">
+        <v>0.3470783625406426</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="B346" t="n">
-        <v>89.46837675509562</v>
+        <v>90.68455586633748</v>
       </c>
       <c r="C346" t="n">
-        <v>580236656.4490404</v>
+        <v>628738993.7097741</v>
       </c>
       <c r="D346" t="n">
-        <v>6568808348.940412</v>
+        <v>6658253026.23805</v>
       </c>
       <c r="E346" t="n">
-        <v>7.107905464421733</v>
+        <v>6.992718364381941</v>
+      </c>
+      <c r="F346" t="n">
+        <v>1.361657587590703</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="B347" t="n">
-        <v>90.68455586633748</v>
+        <v>90.40984042897169</v>
       </c>
       <c r="C347" t="n">
-        <v>628738993.7097741</v>
+        <v>595144293.3387749</v>
       </c>
       <c r="D347" t="n">
-        <v>6658253026.23805</v>
+        <v>6636877582.805502</v>
       </c>
       <c r="E347" t="n">
-        <v>6.992718364381941</v>
+        <v>6.911508478422102</v>
+      </c>
+      <c r="F347" t="n">
+        <v>-0.3210368147367637</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45135</v>
+        <v>45136</v>
       </c>
       <c r="B348" t="n">
-        <v>90.40984042897169</v>
+        <v>91.49610052815916</v>
       </c>
       <c r="C348" t="n">
-        <v>595144293.3387749</v>
+        <v>456503420.1535596</v>
       </c>
       <c r="D348" t="n">
-        <v>6636877582.805502</v>
+        <v>6721560924.332996</v>
       </c>
       <c r="E348" t="n">
-        <v>6.911508478422102</v>
+        <v>6.532411473220241</v>
+      </c>
+      <c r="F348" t="n">
+        <v>1.275951537013253</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45136</v>
+        <v>45137</v>
       </c>
       <c r="B349" t="n">
-        <v>91.49610052815916</v>
+        <v>94.52067129974303</v>
       </c>
       <c r="C349" t="n">
-        <v>456503420.1535596</v>
+        <v>501049778.0411614</v>
       </c>
       <c r="D349" t="n">
-        <v>6721560924.332996</v>
+        <v>6933055184.174461</v>
       </c>
       <c r="E349" t="n">
-        <v>6.532411473220241</v>
+        <v>6.181235646208463</v>
+      </c>
+      <c r="F349" t="n">
+        <v>3.14650513805248</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45137</v>
+        <v>45138</v>
       </c>
       <c r="B350" t="n">
-        <v>94.52067129974303</v>
+        <v>94.15969477869633</v>
       </c>
       <c r="C350" t="n">
-        <v>501049778.0411614</v>
+        <v>1203063739.739203</v>
       </c>
       <c r="D350" t="n">
-        <v>6933055184.174461</v>
+        <v>6916100635.765473</v>
       </c>
       <c r="E350" t="n">
-        <v>6.181235646208463</v>
+        <v>5.804519871331135</v>
+      </c>
+      <c r="F350" t="n">
+        <v>-0.2445465665366187</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45138</v>
+        <v>45139</v>
       </c>
       <c r="B351" t="n">
-        <v>94.15969477869633</v>
+        <v>92.31938068647459</v>
       </c>
       <c r="C351" t="n">
-        <v>1203063739.739203</v>
+        <v>815760612.162505</v>
       </c>
       <c r="D351" t="n">
-        <v>6916100635.765473</v>
+        <v>6775825683.396544</v>
       </c>
       <c r="E351" t="n">
-        <v>5.804519871331135</v>
+        <v>5.453082758721899</v>
+      </c>
+      <c r="F351" t="n">
+        <v>-2.028237582945513</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="B352" t="n">
-        <v>92.31938068647459</v>
+        <v>93.63556992352053</v>
       </c>
       <c r="C352" t="n">
-        <v>815760612.162505</v>
+        <v>1226474181.917467</v>
       </c>
       <c r="D352" t="n">
-        <v>6775825683.396544</v>
+        <v>6887930212.71949</v>
       </c>
       <c r="E352" t="n">
-        <v>5.453082758721899</v>
+        <v>4.333893044933106</v>
+      </c>
+      <c r="F352" t="n">
+        <v>1.654477764940832</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B353" t="n">
-        <v>93.63556992352053</v>
+        <v>87.37000670203481</v>
       </c>
       <c r="C353" t="n">
-        <v>1226474181.917467</v>
+        <v>1343088131.848093</v>
       </c>
       <c r="D353" t="n">
-        <v>6887930212.71949</v>
+        <v>6423759467.496614</v>
       </c>
       <c r="E353" t="n">
-        <v>4.333893044933106</v>
+        <v>3.944111969143398</v>
+      </c>
+      <c r="F353" t="n">
+        <v>-6.73890023400241</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="B354" t="n">
-        <v>87.37000670203481</v>
+        <v>82.79542073454293</v>
       </c>
       <c r="C354" t="n">
-        <v>1343088131.848093</v>
+        <v>906334883.8847512</v>
       </c>
       <c r="D354" t="n">
-        <v>6423759467.496614</v>
+        <v>6096065124.177359</v>
       </c>
       <c r="E354" t="n">
-        <v>3.944111969143398</v>
+        <v>3.96459539948509</v>
+      </c>
+      <c r="F354" t="n">
+        <v>-5.101286014480233</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45142</v>
+        <v>45143</v>
       </c>
       <c r="B355" t="n">
-        <v>82.79542073454293</v>
+        <v>82.12095948348781</v>
       </c>
       <c r="C355" t="n">
-        <v>906334883.8847512</v>
+        <v>836249387.0395079</v>
       </c>
       <c r="D355" t="n">
-        <v>6096065124.177359</v>
+        <v>6032103585.017766</v>
       </c>
       <c r="E355" t="n">
-        <v>3.96459539948509</v>
+        <v>4.114222678463013</v>
+      </c>
+      <c r="F355" t="n">
+        <v>-1.049226638113121</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45143</v>
+        <v>45144</v>
       </c>
       <c r="B356" t="n">
-        <v>82.12095948348781</v>
+        <v>83.07877420646766</v>
       </c>
       <c r="C356" t="n">
-        <v>836249387.0395079</v>
+        <v>334021571.6287143</v>
       </c>
       <c r="D356" t="n">
-        <v>6032103585.017766</v>
+        <v>6107062988.746299</v>
       </c>
       <c r="E356" t="n">
-        <v>4.114222678463013</v>
+        <v>4.447038865351917</v>
+      </c>
+      <c r="F356" t="n">
+        <v>1.24267434522698</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45144</v>
+        <v>45145</v>
       </c>
       <c r="B357" t="n">
-        <v>83.07877420646766</v>
+        <v>82.39249823259077</v>
       </c>
       <c r="C357" t="n">
-        <v>334021571.6287143</v>
+        <v>328454882.4120185</v>
       </c>
       <c r="D357" t="n">
-        <v>6107062988.746299</v>
+        <v>6056808305.61896</v>
       </c>
       <c r="E357" t="n">
-        <v>4.447038865351917</v>
+        <v>4.676248738071266</v>
+      </c>
+      <c r="F357" t="n">
+        <v>-0.8228944620342737</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="B358" t="n">
-        <v>82.39249823259077</v>
+        <v>82.31816552422347</v>
       </c>
       <c r="C358" t="n">
-        <v>328454882.4120185</v>
+        <v>499355743.1493427</v>
       </c>
       <c r="D358" t="n">
-        <v>6056808305.61896</v>
+        <v>6049692621.686927</v>
       </c>
       <c r="E358" t="n">
-        <v>4.676248738071266</v>
+        <v>4.855340357433877</v>
+      </c>
+      <c r="F358" t="n">
+        <v>-0.1174824028264521</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="B359" t="n">
-        <v>82.31816552422347</v>
+        <v>83.95506710454288</v>
       </c>
       <c r="C359" t="n">
-        <v>499355743.1493427</v>
+        <v>603103458.5085845</v>
       </c>
       <c r="D359" t="n">
-        <v>6049692621.686927</v>
+        <v>6174664961.617772</v>
       </c>
       <c r="E359" t="n">
-        <v>4.855340357433877</v>
+        <v>4.984320187865249</v>
+      </c>
+      <c r="F359" t="n">
+        <v>2.065763465119619</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="B360" t="n">
-        <v>83.95506710454288</v>
+        <v>84.07503452840432</v>
       </c>
       <c r="C360" t="n">
-        <v>603103458.5085845</v>
+        <v>373938930.0313933</v>
       </c>
       <c r="D360" t="n">
-        <v>6174664961.617772</v>
+        <v>6180421529.681709</v>
       </c>
       <c r="E360" t="n">
-        <v>4.984320187865249</v>
+        <v>5.023280433377452</v>
+      </c>
+      <c r="F360" t="n">
+        <v>0.09322883265279192</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="B361" t="n">
-        <v>84.07503452840432</v>
+        <v>83.03201002340764</v>
       </c>
       <c r="C361" t="n">
-        <v>373938930.0313933</v>
+        <v>323247965.5774602</v>
       </c>
       <c r="D361" t="n">
-        <v>6180421529.681709</v>
+        <v>6104787488.877308</v>
       </c>
       <c r="E361" t="n">
-        <v>5.023280433377452</v>
+        <v>5.06679657727827</v>
+      </c>
+      <c r="F361" t="n">
+        <v>-1.223768321321872</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45149</v>
+        <v>45150</v>
       </c>
       <c r="B362" t="n">
-        <v>83.03201002340764</v>
+        <v>83.50800894750988</v>
       </c>
       <c r="C362" t="n">
-        <v>323247965.5774602</v>
+        <v>243447161.8113831</v>
       </c>
       <c r="D362" t="n">
-        <v>6104787488.877308</v>
+        <v>6138730765.063747</v>
       </c>
       <c r="E362" t="n">
-        <v>5.06679657727827</v>
+        <v>5.065887921165982</v>
+      </c>
+      <c r="F362" t="n">
+        <v>0.5560107743026732</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45150</v>
+        <v>45151</v>
       </c>
       <c r="B363" t="n">
-        <v>83.50800894750988</v>
+        <v>83.39957478408667</v>
       </c>
       <c r="C363" t="n">
-        <v>243447161.8113831</v>
+        <v>214995255.0659156</v>
       </c>
       <c r="D363" t="n">
-        <v>6138730765.063747</v>
+        <v>6132641560.695079</v>
       </c>
       <c r="E363" t="n">
-        <v>5.065887921165982</v>
+        <v>4.658543157173117</v>
+      </c>
+      <c r="F363" t="n">
+        <v>-0.09919321439088025</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45151</v>
+        <v>45152</v>
       </c>
       <c r="B364" t="n">
-        <v>83.39957478408667</v>
+        <v>81.94622927942365</v>
       </c>
       <c r="C364" t="n">
-        <v>214995255.0659156</v>
+        <v>404198312.4566495</v>
       </c>
       <c r="D364" t="n">
-        <v>6132641560.695079</v>
+        <v>6026113242.407311</v>
       </c>
       <c r="E364" t="n">
-        <v>4.658543157173117</v>
+        <v>4.704630879145902</v>
+      </c>
+      <c r="F364" t="n">
+        <v>-1.737070677186181</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45152</v>
+        <v>45153</v>
       </c>
       <c r="B365" t="n">
-        <v>81.94622927942365</v>
+        <v>82.04349720220276</v>
       </c>
       <c r="C365" t="n">
-        <v>404198312.4566495</v>
+        <v>316194399.5737181</v>
       </c>
       <c r="D365" t="n">
-        <v>6026113242.407311</v>
+        <v>6034074000.632143</v>
       </c>
       <c r="E365" t="n">
-        <v>4.704630879145902</v>
+        <v>4.71342970615164</v>
+      </c>
+      <c r="F365" t="n">
+        <v>0.1321043582256154</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45153</v>
+        <v>45154</v>
       </c>
       <c r="B366" t="n">
-        <v>82.04349720220276</v>
+        <v>79.25527554620012</v>
       </c>
       <c r="C366" t="n">
-        <v>316194399.5737181</v>
+        <v>570126358.9822981</v>
       </c>
       <c r="D366" t="n">
-        <v>6034074000.632143</v>
+        <v>5829925342.036408</v>
       </c>
       <c r="E366" t="n">
-        <v>4.71342970615164</v>
+        <v>4.909421173921852</v>
+      </c>
+      <c r="F366" t="n">
+        <v>-3.383264086160487</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45153.16185185185</v>
+        <v>45154.16342592592</v>
       </c>
       <c r="B367" t="n">
-        <v>81.68778103212561</v>
+        <v>79.1835863914782</v>
       </c>
       <c r="C367" t="n">
-        <v>298830736.2060273</v>
+        <v>581907763.0526096</v>
       </c>
       <c r="D367" t="n">
-        <v>6007898950.46858</v>
+        <v>5826054166.6063</v>
       </c>
       <c r="E367" t="n">
-        <v>4.781612298737328</v>
+        <v>5.078107517001855</v>
+      </c>
+      <c r="F367" t="n">
+        <v>-0.06640180110361049</v>
       </c>
     </row>
   </sheetData>
